--- a/seller_list.xlsx
+++ b/seller_list.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\impudo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19160" yWindow="0" windowWidth="19160" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="19155" yWindow="0" windowWidth="19155" windowHeight="23535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="450">
   <si>
     <t>Website</t>
   </si>
@@ -1345,6 +1350,33 @@
   </si>
   <si>
     <t>article class="post… portfolio" -&gt; ul class="prtfolio-content" -&gt; li</t>
+  </si>
+  <si>
+    <t>uses Javascript?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ul/li/a</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Also has a section "books and dvds". Should this be crawled too?</t>
+  </si>
+  <si>
+    <t>http://moderntimesberlin.com/achive/&lt;number&gt;.jpg and http://moderntimesberlin.com/weekly/&lt;number&gt;.jpg</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>http://www.mggalerie.com/en/collectionsen/</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1438,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1432,8 +1464,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1447,36 +1480,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="25"/>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="26">
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1802,28 +1845,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N373"/>
+  <dimension ref="A1:R373"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="Q1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1847,7 +1899,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1874,7 +1926,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1950,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1928,7 +1980,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +2010,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +2034,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2064,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2088,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2060,7 +2112,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2084,11 +2136,11 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -2112,7 +2164,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2136,7 +2188,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2160,11 +2212,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2194,7 +2246,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2276,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -2248,7 +2300,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2272,7 +2324,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2296,7 +2348,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -2320,7 +2372,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -2344,7 +2396,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2368,7 +2420,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -2392,7 +2444,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -2416,7 +2468,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>413</v>
       </c>
@@ -2443,7 +2495,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -2467,7 +2519,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -2491,7 +2543,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -2515,7 +2567,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -2539,7 +2591,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2563,7 +2615,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2587,7 +2639,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -2611,7 +2663,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -2635,7 +2687,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -2659,7 +2711,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -2683,7 +2735,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -2700,7 +2752,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -2724,7 +2776,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -2754,7 +2806,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
@@ -2769,7 +2821,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -2784,7 +2836,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -2799,7 +2851,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -2814,7 +2866,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -2829,7 +2881,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -2844,7 +2896,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -2859,7 +2911,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -2874,7 +2926,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
@@ -2889,7 +2941,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -2904,7 +2956,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -2919,7 +2971,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
@@ -2934,7 +2986,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
@@ -2949,7 +3001,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
@@ -2964,7 +3016,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
@@ -2979,7 +3031,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -2994,7 +3046,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
@@ -3009,7 +3061,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
@@ -3024,7 +3076,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>55</v>
       </c>
@@ -3039,7 +3091,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -3054,7 +3106,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
@@ -3069,7 +3121,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
@@ -3084,7 +3136,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>59</v>
       </c>
@@ -3099,7 +3151,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>60</v>
       </c>
@@ -3114,7 +3166,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>61</v>
       </c>
@@ -3129,7 +3181,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>62</v>
       </c>
@@ -3144,7 +3196,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>63</v>
       </c>
@@ -3159,7 +3211,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>64</v>
       </c>
@@ -3174,7 +3226,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>65</v>
       </c>
@@ -3189,7 +3241,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>66</v>
       </c>
@@ -3204,7 +3256,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>67</v>
       </c>
@@ -3219,7 +3271,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>68</v>
       </c>
@@ -3234,7 +3286,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>69</v>
       </c>
@@ -3249,7 +3301,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>70</v>
       </c>
@@ -3264,7 +3316,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>71</v>
       </c>
@@ -3279,7 +3331,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>72</v>
       </c>
@@ -3294,7 +3346,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>73</v>
       </c>
@@ -3309,7 +3361,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
@@ -3324,7 +3376,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
@@ -3339,7 +3391,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>76</v>
       </c>
@@ -3354,7 +3406,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>77</v>
       </c>
@@ -3369,7 +3421,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>78</v>
       </c>
@@ -3384,7 +3436,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>79</v>
       </c>
@@ -3399,7 +3451,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
@@ -3414,7 +3466,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>81</v>
       </c>
@@ -3429,7 +3481,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>82</v>
       </c>
@@ -3444,7 +3496,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>83</v>
       </c>
@@ -3459,7 +3511,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>84</v>
       </c>
@@ -3474,7 +3526,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>85</v>
       </c>
@@ -3489,7 +3541,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>86</v>
       </c>
@@ -3504,7 +3556,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>87</v>
       </c>
@@ -3519,7 +3571,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>88</v>
       </c>
@@ -3534,7 +3586,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>89</v>
       </c>
@@ -3549,7 +3601,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>90</v>
       </c>
@@ -3564,7 +3616,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>91</v>
       </c>
@@ -3579,7 +3631,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>92</v>
       </c>
@@ -3594,7 +3646,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>93</v>
       </c>
@@ -3609,7 +3661,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>94</v>
       </c>
@@ -3624,7 +3676,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>95</v>
       </c>
@@ -3639,7 +3691,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>96</v>
       </c>
@@ -3654,7 +3706,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>97</v>
       </c>
@@ -3669,7 +3721,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>98</v>
       </c>
@@ -3684,7 +3736,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>99</v>
       </c>
@@ -3699,7 +3751,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>100</v>
       </c>
@@ -3714,7 +3766,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>101</v>
       </c>
@@ -3729,7 +3781,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>102</v>
       </c>
@@ -3744,7 +3796,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>103</v>
       </c>
@@ -3759,7 +3811,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>104</v>
       </c>
@@ -3774,7 +3826,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>105</v>
       </c>
@@ -3789,7 +3841,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>106</v>
       </c>
@@ -3804,7 +3856,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -3819,7 +3871,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>108</v>
       </c>
@@ -3834,7 +3886,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>109</v>
       </c>
@@ -3849,7 +3901,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>110</v>
       </c>
@@ -3864,7 +3916,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>111</v>
       </c>
@@ -3879,7 +3931,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>112</v>
       </c>
@@ -3894,7 +3946,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>113</v>
       </c>
@@ -3909,7 +3961,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>114</v>
       </c>
@@ -3924,7 +3976,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>115</v>
       </c>
@@ -3939,7 +3991,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>116</v>
       </c>
@@ -3954,7 +4006,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>117</v>
       </c>
@@ -3969,7 +4021,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>118</v>
       </c>
@@ -3984,7 +4036,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>119</v>
       </c>
@@ -3999,7 +4051,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>120</v>
       </c>
@@ -4014,7 +4066,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>121</v>
       </c>
@@ -4029,7 +4081,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>122</v>
       </c>
@@ -4044,7 +4096,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>123</v>
       </c>
@@ -4059,7 +4111,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>124</v>
       </c>
@@ -4074,7 +4126,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>125</v>
       </c>
@@ -4089,7 +4141,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>126</v>
       </c>
@@ -4104,7 +4156,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>127</v>
       </c>
@@ -4119,7 +4171,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>128</v>
       </c>
@@ -4134,7 +4186,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>129</v>
       </c>
@@ -4149,7 +4201,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>130</v>
       </c>
@@ -4164,7 +4216,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>131</v>
       </c>
@@ -4179,7 +4231,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>132</v>
       </c>
@@ -4194,7 +4246,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>133</v>
       </c>
@@ -4209,7 +4261,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>134</v>
       </c>
@@ -4224,7 +4276,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>135</v>
       </c>
@@ -4239,7 +4291,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>136</v>
       </c>
@@ -4254,7 +4306,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>137</v>
       </c>
@@ -4269,7 +4321,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>138</v>
       </c>
@@ -4284,7 +4336,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>139</v>
       </c>
@@ -4299,7 +4351,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>140</v>
       </c>
@@ -4314,7 +4366,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>141</v>
       </c>
@@ -4329,7 +4381,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>142</v>
       </c>
@@ -4344,7 +4396,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>143</v>
       </c>
@@ -4359,7 +4411,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>144</v>
       </c>
@@ -4374,7 +4426,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>145</v>
       </c>
@@ -4389,7 +4441,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>146</v>
       </c>
@@ -4404,7 +4456,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>147</v>
       </c>
@@ -4419,7 +4471,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>148</v>
       </c>
@@ -4434,7 +4486,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>149</v>
       </c>
@@ -4449,7 +4501,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>150</v>
       </c>
@@ -4464,7 +4516,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>151</v>
       </c>
@@ -4479,7 +4531,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>152</v>
       </c>
@@ -4494,7 +4546,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>153</v>
       </c>
@@ -4509,7 +4561,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>154</v>
       </c>
@@ -4524,7 +4576,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>155</v>
       </c>
@@ -4539,7 +4591,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>156</v>
       </c>
@@ -4554,7 +4606,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>157</v>
       </c>
@@ -4569,7 +4621,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>158</v>
       </c>
@@ -4584,7 +4636,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>159</v>
       </c>
@@ -4599,7 +4651,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>160</v>
       </c>
@@ -4614,7 +4666,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>161</v>
       </c>
@@ -4629,7 +4681,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>162</v>
       </c>
@@ -4644,7 +4696,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>163</v>
       </c>
@@ -4659,7 +4711,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>164</v>
       </c>
@@ -4674,7 +4726,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>165</v>
       </c>
@@ -4689,7 +4741,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>166</v>
       </c>
@@ -4704,7 +4756,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>167</v>
       </c>
@@ -4719,7 +4771,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>168</v>
       </c>
@@ -4734,7 +4786,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>169</v>
       </c>
@@ -4749,7 +4801,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>170</v>
       </c>
@@ -4764,7 +4816,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>171</v>
       </c>
@@ -4779,7 +4831,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>172</v>
       </c>
@@ -4794,7 +4846,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>173</v>
       </c>
@@ -4809,7 +4861,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>174</v>
       </c>
@@ -4824,7 +4876,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>175</v>
       </c>
@@ -4839,7 +4891,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>176</v>
       </c>
@@ -4854,7 +4906,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>177</v>
       </c>
@@ -4869,7 +4921,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>178</v>
       </c>
@@ -4884,7 +4936,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>179</v>
       </c>
@@ -4899,7 +4951,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>180</v>
       </c>
@@ -4914,7 +4966,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>181</v>
       </c>
@@ -4929,7 +4981,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>182</v>
       </c>
@@ -4944,7 +4996,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>183</v>
       </c>
@@ -4959,7 +5011,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>184</v>
       </c>
@@ -4974,7 +5026,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" t="s">
@@ -4987,7 +5039,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>185</v>
       </c>
@@ -5002,7 +5054,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>186</v>
       </c>
@@ -5017,7 +5069,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>187</v>
       </c>
@@ -5032,7 +5084,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>188</v>
       </c>
@@ -5047,7 +5099,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>189</v>
       </c>
@@ -5062,7 +5114,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>190</v>
       </c>
@@ -5077,7 +5129,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>191</v>
       </c>
@@ -5092,7 +5144,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>192</v>
       </c>
@@ -5107,7 +5159,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>193</v>
       </c>
@@ -5122,7 +5174,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>194</v>
       </c>
@@ -5137,7 +5189,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>195</v>
       </c>
@@ -5152,7 +5204,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>196</v>
       </c>
@@ -5167,7 +5219,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>197</v>
       </c>
@@ -5182,7 +5234,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>198</v>
       </c>
@@ -5197,7 +5249,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>199</v>
       </c>
@@ -5212,7 +5264,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>200</v>
       </c>
@@ -5227,7 +5279,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>201</v>
       </c>
@@ -5242,7 +5294,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>202</v>
       </c>
@@ -5257,7 +5309,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>203</v>
       </c>
@@ -5272,7 +5324,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>204</v>
       </c>
@@ -5287,7 +5339,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>205</v>
       </c>
@@ -5302,7 +5354,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>206</v>
       </c>
@@ -5317,7 +5369,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>207</v>
       </c>
@@ -5332,7 +5384,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>208</v>
       </c>
@@ -5347,7 +5399,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>209</v>
       </c>
@@ -5362,7 +5414,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>210</v>
       </c>
@@ -5377,7 +5429,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" t="s">
@@ -5390,7 +5442,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>211</v>
       </c>
@@ -5405,7 +5457,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>212</v>
       </c>
@@ -5420,7 +5472,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>213</v>
       </c>
@@ -5435,7 +5487,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>214</v>
       </c>
@@ -5450,7 +5502,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>215</v>
       </c>
@@ -5465,7 +5517,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>216</v>
       </c>
@@ -5480,7 +5532,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>217</v>
       </c>
@@ -5495,7 +5547,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>218</v>
       </c>
@@ -5510,7 +5562,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>219</v>
       </c>
@@ -5525,7 +5577,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>220</v>
       </c>
@@ -5540,7 +5592,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>221</v>
       </c>
@@ -5555,7 +5607,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>222</v>
       </c>
@@ -5570,7 +5622,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>223</v>
       </c>
@@ -5585,7 +5637,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>224</v>
       </c>
@@ -5600,7 +5652,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>225</v>
       </c>
@@ -5615,7 +5667,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>226</v>
       </c>
@@ -5630,7 +5682,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>227</v>
       </c>
@@ -5645,7 +5697,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>228</v>
       </c>
@@ -5660,7 +5712,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>229</v>
       </c>
@@ -5675,7 +5727,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>230</v>
       </c>
@@ -5690,7 +5742,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>231</v>
       </c>
@@ -5705,7 +5757,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>232</v>
       </c>
@@ -5720,7 +5772,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>233</v>
       </c>
@@ -5735,7 +5787,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>234</v>
       </c>
@@ -5750,7 +5802,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>235</v>
       </c>
@@ -5765,7 +5817,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>236</v>
       </c>
@@ -5780,7 +5832,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>237</v>
       </c>
@@ -5795,7 +5847,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>238</v>
       </c>
@@ -5810,7 +5862,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>239</v>
       </c>
@@ -5825,7 +5877,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>240</v>
       </c>
@@ -5840,7 +5892,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" t="s">
@@ -5853,7 +5905,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>241</v>
       </c>
@@ -5868,7 +5920,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>242</v>
       </c>
@@ -5883,7 +5935,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>243</v>
       </c>
@@ -5898,7 +5950,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>244</v>
       </c>
@@ -5913,7 +5965,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>245</v>
       </c>
@@ -5928,7 +5980,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>246</v>
       </c>
@@ -5943,7 +5995,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>247</v>
       </c>
@@ -5958,7 +6010,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>248</v>
       </c>
@@ -5973,7 +6025,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>249</v>
       </c>
@@ -5988,7 +6040,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>250</v>
       </c>
@@ -6003,7 +6055,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>251</v>
       </c>
@@ -6018,7 +6070,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>252</v>
       </c>
@@ -6033,7 +6085,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>253</v>
       </c>
@@ -6048,7 +6100,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>254</v>
       </c>
@@ -6063,7 +6115,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>255</v>
       </c>
@@ -6078,7 +6130,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>256</v>
       </c>
@@ -6093,7 +6145,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>257</v>
       </c>
@@ -6108,7 +6160,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>258</v>
       </c>
@@ -6123,7 +6175,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>259</v>
       </c>
@@ -6138,7 +6190,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>260</v>
       </c>
@@ -6153,7 +6205,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>261</v>
       </c>
@@ -6168,7 +6220,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>262</v>
       </c>
@@ -6183,7 +6235,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>263</v>
       </c>
@@ -6198,7 +6250,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>264</v>
       </c>
@@ -6213,7 +6265,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" t="s">
@@ -6226,7 +6278,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>265</v>
       </c>
@@ -6241,7 +6293,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" t="s">
@@ -6254,7 +6306,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>266</v>
       </c>
@@ -6269,7 +6321,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>267</v>
       </c>
@@ -6284,7 +6336,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>268</v>
       </c>
@@ -6299,7 +6351,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>269</v>
       </c>
@@ -6314,7 +6366,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>270</v>
       </c>
@@ -6329,7 +6381,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>271</v>
       </c>
@@ -6344,7 +6396,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>272</v>
       </c>
@@ -6359,7 +6411,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>273</v>
       </c>
@@ -6374,7 +6426,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>274</v>
       </c>
@@ -6389,7 +6441,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>275</v>
       </c>
@@ -6404,7 +6456,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>276</v>
       </c>
@@ -6419,7 +6471,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>277</v>
       </c>
@@ -6434,7 +6486,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>278</v>
       </c>
@@ -6449,7 +6501,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>279</v>
       </c>
@@ -6464,7 +6516,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>280</v>
       </c>
@@ -6479,7 +6531,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>281</v>
       </c>
@@ -6494,7 +6546,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>282</v>
       </c>
@@ -6509,7 +6561,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>283</v>
       </c>
@@ -6524,7 +6576,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>284</v>
       </c>
@@ -6539,7 +6591,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>285</v>
       </c>
@@ -6554,7 +6606,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>286</v>
       </c>
@@ -6569,7 +6621,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>287</v>
       </c>
@@ -6584,7 +6636,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>288</v>
       </c>
@@ -6599,7 +6651,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>289</v>
       </c>
@@ -6614,7 +6666,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>290</v>
       </c>
@@ -6629,7 +6681,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>291</v>
       </c>
@@ -6644,7 +6696,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>292</v>
       </c>
@@ -6659,7 +6711,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>293</v>
       </c>
@@ -6674,7 +6726,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>294</v>
       </c>
@@ -6689,7 +6741,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>295</v>
       </c>
@@ -6704,7 +6756,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>296</v>
       </c>
@@ -6719,7 +6771,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>297</v>
       </c>
@@ -6734,7 +6786,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>298</v>
       </c>
@@ -6749,7 +6801,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>299</v>
       </c>
@@ -6764,7 +6816,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>300</v>
       </c>
@@ -6779,7 +6831,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>301</v>
       </c>
@@ -6794,7 +6846,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>302</v>
       </c>
@@ -6809,7 +6861,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>303</v>
       </c>
@@ -6824,7 +6876,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>304</v>
       </c>
@@ -6839,7 +6891,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="28">
+    <row r="314" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>305</v>
       </c>
@@ -6854,7 +6906,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>306</v>
       </c>
@@ -6869,7 +6921,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>307</v>
       </c>
@@ -6884,7 +6936,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>308</v>
       </c>
@@ -6899,7 +6951,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>309</v>
       </c>
@@ -6914,7 +6966,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>310</v>
       </c>
@@ -6929,7 +6981,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>311</v>
       </c>
@@ -6944,7 +6996,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>312</v>
       </c>
@@ -6959,7 +7011,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>313</v>
       </c>
@@ -6974,7 +7026,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>314</v>
       </c>
@@ -6989,7 +7041,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>315</v>
       </c>
@@ -7004,7 +7056,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>316</v>
       </c>
@@ -7019,7 +7071,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>317</v>
       </c>
@@ -7034,7 +7086,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>318</v>
       </c>
@@ -7049,7 +7101,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>319</v>
       </c>
@@ -7064,7 +7116,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>320</v>
       </c>
@@ -7079,7 +7131,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>321</v>
       </c>
@@ -7094,7 +7146,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>322</v>
       </c>
@@ -7109,7 +7161,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>323</v>
       </c>
@@ -7124,7 +7176,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>324</v>
       </c>
@@ -7139,7 +7191,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>325</v>
       </c>
@@ -7154,7 +7206,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>326</v>
       </c>
@@ -7169,7 +7221,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>327</v>
       </c>
@@ -7184,7 +7236,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>328</v>
       </c>
@@ -7199,7 +7251,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>329</v>
       </c>
@@ -7214,7 +7266,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>330</v>
       </c>
@@ -7229,7 +7281,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>331</v>
       </c>
@@ -7244,7 +7296,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>332</v>
       </c>
@@ -7259,7 +7311,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>333</v>
       </c>
@@ -7274,7 +7326,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>334</v>
       </c>
@@ -7289,7 +7341,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>335</v>
       </c>
@@ -7304,7 +7356,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>336</v>
       </c>
@@ -7319,7 +7371,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>337</v>
       </c>
@@ -7334,7 +7386,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>338</v>
       </c>
@@ -7349,7 +7401,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>339</v>
       </c>
@@ -7364,7 +7416,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>340</v>
       </c>
@@ -7379,7 +7431,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>341</v>
       </c>
@@ -7394,7 +7446,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>342</v>
       </c>
@@ -7409,7 +7461,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>343</v>
       </c>
@@ -7424,7 +7476,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>344</v>
       </c>
@@ -7439,7 +7491,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>345</v>
       </c>
@@ -7454,7 +7506,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>346</v>
       </c>
@@ -7469,7 +7521,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>347</v>
       </c>
@@ -7484,7 +7536,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>348</v>
       </c>
@@ -7499,7 +7551,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>349</v>
       </c>
@@ -7514,7 +7566,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>350</v>
       </c>
@@ -7529,7 +7581,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>351</v>
       </c>
@@ -7544,7 +7596,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>352</v>
       </c>
@@ -7559,7 +7611,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>353</v>
       </c>
@@ -7574,7 +7626,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>354</v>
       </c>
@@ -7589,7 +7641,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>355</v>
       </c>
@@ -7603,8 +7655,11 @@
       <c r="G364" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="Q364" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>356</v>
       </c>
@@ -7612,14 +7667,20 @@
       <c r="C365" t="s">
         <v>364</v>
       </c>
+      <c r="D365" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="E365" t="s">
         <v>367</v>
       </c>
+      <c r="F365" t="s">
+        <v>449</v>
+      </c>
       <c r="G365" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>357</v>
       </c>
@@ -7627,6 +7688,9 @@
       <c r="C366" t="s">
         <v>364</v>
       </c>
+      <c r="D366" t="s">
+        <v>447</v>
+      </c>
       <c r="E366" t="s">
         <v>367</v>
       </c>
@@ -7634,7 +7698,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>358</v>
       </c>
@@ -7642,38 +7706,50 @@
       <c r="C367" t="s">
         <v>364</v>
       </c>
+      <c r="D367" t="s">
+        <v>443</v>
+      </c>
       <c r="E367" t="s">
         <v>367</v>
       </c>
       <c r="G367" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="369" spans="1:2">
+      <c r="H367" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>442</v>
+      </c>
+      <c r="R367" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
         <v>359</v>
       </c>
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>360</v>
       </c>
       <c r="B370" s="4"/>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>361</v>
       </c>
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>362</v>
       </c>
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>363</v>
       </c>
@@ -7681,6 +7757,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A373"/>
+  <hyperlinks>
+    <hyperlink ref="H367" r:id="rId1" display="http://moderntimesberlin.com/achive/&lt;number&gt;.jpg"/>
+    <hyperlink ref="D365" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/seller_list.xlsx
+++ b/seller_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="489">
   <si>
     <t>Website</t>
   </si>
@@ -1402,6 +1402,93 @@
   </si>
   <si>
     <t>div id / class="product" -&gt; p</t>
+  </si>
+  <si>
+    <t>table class="product-meta" -&gt; tbody -&gt; tr -&gt; td</t>
+  </si>
+  <si>
+    <t>ul class="proudcts-list" -&gt; li -&gt; div -&gt; a href</t>
+  </si>
+  <si>
+    <t>ul class="proudcts-list" -&gt; li -&gt; div -&gt; a style</t>
+  </si>
+  <si>
+    <t>article id / class="post" -&gt; ul -&gt; div class="content"</t>
+  </si>
+  <si>
+    <t>ul id="product_list" -&gt; li -&gt; div -&gt; a href</t>
+  </si>
+  <si>
+    <t>ul id="product_list" -&gt; li -&gt; div -&gt; img src</t>
+  </si>
+  <si>
+    <t>div class="product_page -&gt; div -&gt; div / div id="short_description"</t>
+  </si>
+  <si>
+    <t>works without JS though</t>
+  </si>
+  <si>
+    <t>ul id="proudcts" -&gt; li -&gt; a href</t>
+  </si>
+  <si>
+    <t>ul id="products" -&gt; li -&gt; img src</t>
+  </si>
+  <si>
+    <t>div id="product_info" -&gt; section -&gt; p</t>
+  </si>
+  <si>
+    <t>div class="m-shop-listing" -&gt; ul -&gt; li -&gt; a href</t>
+  </si>
+  <si>
+    <t>div class="m-shop-listing" -&gt; ul -&gt; li -&gt; img src</t>
+  </si>
+  <si>
+    <t>div class="m-shop-item-details" -&gt; p</t>
+  </si>
+  <si>
+    <t>div class="content" -&gt; div -&gt; a href</t>
+  </si>
+  <si>
+    <t>div class="content" -&gt; p</t>
+  </si>
+  <si>
+    <t>article class="post" -&gt; div -&gt; div -&gt; a href</t>
+  </si>
+  <si>
+    <t>article class="post" -&gt; div -&gt; div -&gt; img src</t>
+  </si>
+  <si>
+    <t>article class="post" -&gt; div</t>
+  </si>
+  <si>
+    <t>div class="product" -&gt; div -&gt; a href</t>
+  </si>
+  <si>
+    <t>div class="product" -&gt; div</t>
+  </si>
+  <si>
+    <t>div class="detail" -&gt;</t>
+  </si>
+  <si>
+    <t>div id="product-list" -&gt; ul class="products-grid" -&gt; li -&gt; div</t>
+  </si>
+  <si>
+    <t>div class="product…" -&gt; / div class="short-description"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">div class="gallery" -&gt; div id="thumbtitle" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>works just enough without JS though</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; div -&gt; div -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; div -&gt; div -&gt; div -&gt; div</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1573,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1516,6 +1603,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1534,7 +1624,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1550,6 +1640,9 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1903,10 +1996,10 @@
   <dimension ref="A1:L373"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2549,178 +2642,370 @@
       <c r="D45" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="F45" s="2" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="G48" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="G50" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="G51" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="G55" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="G58" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="G59" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="G60" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="G63" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:8">
       <c r="A67" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:8">
       <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:8">
       <c r="A70" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:8">
       <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:8">
       <c r="A72" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:8">
       <c r="A73" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:8">
       <c r="A74" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:8">
       <c r="A75" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:8">
       <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:8">
       <c r="A77" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:8">
       <c r="A80" s="3" t="s">
         <v>75</v>
       </c>

--- a/seller_list.xlsx
+++ b/seller_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="518">
   <si>
     <t>Website</t>
   </si>
@@ -210,9 +210,6 @@
     <t>capperidicasa.com</t>
   </si>
   <si>
-    <t>christopherhallantiques.com</t>
-  </si>
-  <si>
     <t>city-furniture.be</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>schalling.se</t>
   </si>
   <si>
-    <t>sixandsons.com</t>
-  </si>
-  <si>
     <t>sobrocindus.com/contact</t>
   </si>
   <si>
@@ -1425,9 +1419,6 @@
     <t>div class="product_page -&gt; div -&gt; div / div id="short_description"</t>
   </si>
   <si>
-    <t>works without JS though</t>
-  </si>
-  <si>
     <t>ul id="proudcts" -&gt; li -&gt; a href</t>
   </si>
   <si>
@@ -1482,20 +1473,116 @@
     <t xml:space="preserve">yes </t>
   </si>
   <si>
-    <t>works just enough without JS though</t>
-  </si>
-  <si>
     <t>div id="content" -&gt; div -&gt; div -&gt; div -&gt;</t>
   </si>
   <si>
     <t>div id="content" -&gt; div -&gt; div -&gt; div -&gt; div</t>
+  </si>
+  <si>
+    <t>div class="product-list" -&gt; div -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; div id="tab-description" -&gt;</t>
+  </si>
+  <si>
+    <t>www.christopherhallantiques.com</t>
+  </si>
+  <si>
+    <t>table -&gt; tbody -&gt; tr -&gt; td -&gt; p</t>
+  </si>
+  <si>
+    <t>div id="listholder" -&gt; div -&gt; ul -&gt; li -&gt; div</t>
+  </si>
+  <si>
+    <t>div id="iteminf" -&gt; form -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>div class="portfoliocontainer" -&gt; ul class="gallery clearfix" -&gt; li -&gt;</t>
+  </si>
+  <si>
+    <t>table -&gt; tbody -&gt; tr -&gt; td class="kategori_td"-&gt;</t>
+  </si>
+  <si>
+    <t>ul class="products" -&gt; li class="post…" -&gt;</t>
+  </si>
+  <si>
+    <t>ul class="proudct-header" -&gt; li -&gt;</t>
+  </si>
+  <si>
+    <t>table -&gt; tbody -&gt; tr -&gt; td -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table -&gt; tbody -&gt; tr -&gt; td -&gt; </t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; table -&gt; tbody -&gt; tr -&gt; td -&gt;</t>
+  </si>
+  <si>
+    <t>nothing comparable to a pattern found so far</t>
+  </si>
+  <si>
+    <t>div class="fp_product_box" -&gt; div -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; form -&gt; table -&gt; tbody -&gt; tr -&gt; td -&gt;</t>
+  </si>
+  <si>
+    <t>div id="main-content" -&gt;</t>
+  </si>
+  <si>
+    <t>div class="proudct-text"</t>
+  </si>
+  <si>
+    <t>div class="product-table"</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; article id="post…" -&gt; div class="entry-content" -&gt; div -&gt; div -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; article id="post…" -&gt; div class="entry-content" -&gt; div -&gt; div -&gt; div -&gt; div -&gt; div -&gt; span class="description"</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; table -&gt; tbody -&gt; tr -&gt; td -&gt;div</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>nothing comparable to a pattern</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; div -&gt; div id="post…" -&gt;</t>
+  </si>
+  <si>
+    <t>div id="content" -&gt; div -&gt; div id="post…" -&gt;div class="entry-content" -&gt; ul -&gt;</t>
+  </si>
+  <si>
+    <t>www.sixandsons.com</t>
+  </si>
+  <si>
+    <t>div id="product-loop" -&gt; div class="product-index…" -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>div id="product-description -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">div class="content list-content" -&gt; div -&gt; ul -&gt; li </t>
+  </si>
+  <si>
+    <t>div class="content single" -&gt; div -&gt; div class="single-post" -&gt;</t>
+  </si>
+  <si>
+    <t>div class="content-m" -&gt; div -&gt; div -&gt; div -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>div class="content-m" -&gt; div -&gt; div[3] -&gt; div -&gt; div -&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1538,6 +1625,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1607,7 +1699,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1623,6 +1715,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="25" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1996,10 +2091,10 @@
   <dimension ref="A1:L373"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2020,25 +2115,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>365</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -2048,13 +2143,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2062,13 +2157,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2076,13 +2171,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2090,16 +2185,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2107,16 +2202,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2124,13 +2219,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2138,16 +2233,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2155,13 +2250,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2169,13 +2264,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2183,13 +2278,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2200,13 +2295,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2214,13 +2309,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2228,13 +2323,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2245,16 +2340,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2262,16 +2357,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2279,13 +2374,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2293,13 +2388,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2307,13 +2402,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2321,13 +2416,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2335,13 +2430,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2349,13 +2444,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2363,13 +2458,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2377,27 +2472,27 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2405,13 +2500,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2419,13 +2514,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2433,13 +2528,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2447,13 +2542,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2461,13 +2556,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2475,13 +2570,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2489,13 +2584,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2503,13 +2598,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2517,13 +2612,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2531,13 +2626,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2545,7 +2640,7 @@
         <v>34</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2553,13 +2648,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2567,16 +2662,16 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2584,27 +2679,27 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2612,13 +2707,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2626,7 +2721,7 @@
         <v>39</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2634,16 +2729,16 @@
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="D45" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2651,13 +2746,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2665,13 +2760,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2679,240 +2774,213 @@
         <v>43</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2920,634 +2988,845 @@
         <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="3" t="s">
-        <v>62</v>
+      <c r="A67" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="H72" s="2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3" t="s">
+      <c r="B81" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3" t="s">
+      <c r="G82" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3" t="s">
+      <c r="G83" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3" t="s">
+      <c r="B84" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3" t="s">
+      <c r="B86" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3" t="s">
+      <c r="B87" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
+    <row r="89" spans="1:8">
+      <c r="A89" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="3" t="s">
+    <row r="90" spans="1:8">
+      <c r="A90" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="3" t="s">
+    <row r="91" spans="1:8">
+      <c r="A91" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3" t="s">
+    <row r="92" spans="1:8">
+      <c r="A92" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="3" t="s">
+    <row r="93" spans="1:8">
+      <c r="A93" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3" t="s">
+    <row r="94" spans="1:8">
+      <c r="A94" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="3" t="s">
+    <row r="95" spans="1:8">
+      <c r="A95" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3" t="s">
+    <row r="96" spans="1:8">
+      <c r="A96" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="28">
       <c r="A142" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:1">
@@ -3555,132 +3834,132 @@
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:1">
@@ -3688,152 +3967,152 @@
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="28">
       <c r="A238" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="28">
       <c r="A240" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -3841,122 +4120,122 @@
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="272" spans="1:1">
@@ -3964,7 +4243,7 @@
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="274" spans="1:1">
@@ -3972,516 +4251,516 @@
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="28">
       <c r="A314" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="28">
       <c r="A328" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="28">
       <c r="A341" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28">
       <c r="A359" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28">
       <c r="A366" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B367" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H367" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H367" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4489,6 +4768,7 @@
   <hyperlinks>
     <hyperlink ref="D367" r:id="rId1" display="http://moderntimesberlin.com/achive/&lt;number&gt;.jpg"/>
     <hyperlink ref="B365" r:id="rId2"/>
+    <hyperlink ref="A67" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/seller_list.xlsx
+++ b/seller_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19160" yWindow="0" windowWidth="19160" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="527">
   <si>
     <t>Website</t>
   </si>
@@ -270,9 +270,6 @@
     <t>spoor38.nl</t>
   </si>
   <si>
-    <t>indenfor.com</t>
-  </si>
-  <si>
     <t>antiquesobjects.com</t>
   </si>
   <si>
@@ -1576,6 +1573,36 @@
   </si>
   <si>
     <t>div class="content-m" -&gt; div -&gt; div[3] -&gt; div -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>div class="products" -&gt;</t>
+  </si>
+  <si>
+    <t>div class="products"</t>
+  </si>
+  <si>
+    <t>section class="content…" -&gt; div -&gt;</t>
+  </si>
+  <si>
+    <t>www.indenfor.com</t>
+  </si>
+  <si>
+    <t>div id="category_item_list" -&gt; ul -&gt; li -&gt;</t>
+  </si>
+  <si>
+    <t>div id="category_item_list" -&gt; ul -&gt; li -&gt;div</t>
+  </si>
+  <si>
+    <t>java script needed</t>
+  </si>
+  <si>
+    <t>div id="content_wrapper" -&gt; table -&gt; tbody -&gt; tr -&gt; td -&gt;</t>
+  </si>
+  <si>
+    <t>div id="description" -&gt;</t>
+  </si>
+  <si>
+    <t>no products</t>
   </si>
 </sst>
 </file>
@@ -2091,16 +2118,16 @@
   <dimension ref="A1:L373"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
@@ -2115,25 +2142,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>363</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -2143,13 +2170,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2157,13 +2184,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2171,13 +2198,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2185,16 +2212,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2202,16 +2229,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2219,13 +2246,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2233,16 +2260,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2250,13 +2277,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2264,13 +2291,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2278,13 +2305,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2295,13 +2322,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2309,13 +2336,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2323,13 +2350,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2340,16 +2367,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2357,16 +2384,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2374,13 +2401,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2388,13 +2415,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2402,13 +2429,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2416,13 +2443,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2430,13 +2457,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2444,13 +2471,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2458,13 +2485,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2472,27 +2499,27 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2500,13 +2527,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2514,13 +2541,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2528,13 +2555,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2542,13 +2569,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2556,13 +2583,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2570,13 +2597,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2584,13 +2611,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2598,13 +2625,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2612,13 +2639,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2626,13 +2653,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2640,7 +2667,7 @@
         <v>34</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2648,13 +2675,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2662,16 +2689,16 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2679,27 +2706,27 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2707,13 +2734,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2721,7 +2748,7 @@
         <v>39</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2729,16 +2756,16 @@
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2746,13 +2773,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2760,13 +2787,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2774,7 +2801,7 @@
         <v>43</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2782,16 +2809,16 @@
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2799,7 +2826,7 @@
         <v>45</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2807,7 +2834,7 @@
         <v>46</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2815,16 +2842,16 @@
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2832,16 +2859,16 @@
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2849,13 +2876,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2863,7 +2890,7 @@
         <v>50</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2871,16 +2898,16 @@
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2888,16 +2915,16 @@
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2905,7 +2932,7 @@
         <v>53</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2913,7 +2940,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2921,7 +2948,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2929,16 +2956,16 @@
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2946,16 +2973,16 @@
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2963,7 +2990,7 @@
         <v>58</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2971,16 +2998,16 @@
         <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2988,16 +3015,16 @@
         <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3005,33 +3032,33 @@
         <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3039,16 +3066,16 @@
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3056,16 +3083,16 @@
         <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3073,16 +3100,16 @@
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3090,16 +3117,16 @@
         <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3108,7 +3135,7 @@
       </c>
       <c r="B72" s="4"/>
       <c r="H72" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3116,16 +3143,16 @@
         <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="G73" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3133,13 +3160,13 @@
         <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3147,7 +3174,7 @@
         <v>69</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3155,16 +3182,16 @@
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3172,19 +3199,19 @@
         <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="G77" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3192,7 +3219,7 @@
         <v>72</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3200,7 +3227,7 @@
         <v>73</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3208,16 +3235,16 @@
         <v>74</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3225,16 +3252,16 @@
         <v>75</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3242,10 +3269,10 @@
         <v>76</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3253,7 +3280,7 @@
         <v>77</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3261,33 +3288,33 @@
         <v>78</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3295,16 +3322,16 @@
         <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3312,521 +3339,557 @@
         <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="B88" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="3" t="s">
-        <v>82</v>
+        <v>520</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="28">
       <c r="A142" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:1">
@@ -3834,132 +3897,132 @@
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:1">
@@ -3967,152 +4030,152 @@
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="28">
       <c r="A238" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="28">
       <c r="A240" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -4120,122 +4183,122 @@
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="272" spans="1:1">
@@ -4243,7 +4306,7 @@
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="274" spans="1:1">
@@ -4251,516 +4314,516 @@
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="28">
       <c r="A314" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="28">
       <c r="A328" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="28">
       <c r="A341" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28">
       <c r="A359" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B365" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28">
       <c r="A366" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/seller_list.xlsx
+++ b/seller_list.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="19160" yWindow="0" windowWidth="19160" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$373</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="656">
   <si>
     <t>Website</t>
   </si>
@@ -99,9 +99,6 @@
     <t>fk-gallery.com</t>
   </si>
   <si>
-    <t>clarkepickett.com</t>
-  </si>
-  <si>
     <t>cornershop-design.com</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>506070.co.uk</t>
   </si>
   <si>
-    <t>.galerie-jungmann.com</t>
-  </si>
-  <si>
     <t>goldstein-interieur.com</t>
   </si>
   <si>
@@ -1104,48 +1098,21 @@
     <t>L'ArcoBaleno GmbH</t>
   </si>
   <si>
-    <t>product link</t>
-  </si>
-  <si>
-    <t>product picture</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
     <t>description text</t>
   </si>
   <si>
-    <t>except for navbar, only text on page</t>
-  </si>
-  <si>
-    <t>img src</t>
-  </si>
-  <si>
-    <t>ul -&gt; li -&gt; a href</t>
-  </si>
-  <si>
     <t>a href</t>
   </si>
   <si>
-    <t>src</t>
-  </si>
-  <si>
     <t>id="caption"</t>
   </si>
   <si>
     <t>ul -&gt; p</t>
   </si>
   <si>
-    <t>ul -&gt; li</t>
-  </si>
-  <si>
     <t>span</t>
   </si>
   <si>
-    <t>various</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -1170,81 +1137,42 @@
     <t>ul -&gt; li -&gt; class="product-description"</t>
   </si>
   <si>
-    <t>ul -&gt; li -&gt; class="product-description" -&gt; ul -&gt; li</t>
-  </si>
-  <si>
-    <t>article class="category grid__product" -&gt; ahref</t>
-  </si>
-  <si>
     <t>class="product-info__desc"</t>
   </si>
   <si>
-    <t>ul class="product-info__attr"</t>
-  </si>
-  <si>
     <t>class="post" -&gt; a href</t>
   </si>
   <si>
     <t>class="post-content"</t>
   </si>
   <si>
-    <t>tbody -&gt; tr -&gt; td -&gt; img src</t>
-  </si>
-  <si>
     <t>tbody -&gt; tr -&gt; td</t>
   </si>
   <si>
     <t>table -&gt; tr -&gt; td -&gt; p -&gt; a href</t>
   </si>
   <si>
-    <t>table -&gt; tr -&gt; td -&gt; p -&gt; img src</t>
-  </si>
-  <si>
     <t>table -&gt; tr -&gt; td -&gt; p</t>
   </si>
   <si>
-    <t>table class="product…" -&gt; tbody -&gt; tr -&gt; td -&gt; a href</t>
-  </si>
-  <si>
-    <t>table class="product…" -&gt; tbody -&gt; tr -&gt; td -&gt; img src</t>
-  </si>
-  <si>
     <t>class="prod-details" / "prod_description"</t>
   </si>
   <si>
-    <t>table -&gt; tbody -&gt; tr -&gt; td -&gt; img src</t>
-  </si>
-  <si>
     <t>table -&gt; tbody -&gt; tr -&gt; td -&gt; a href</t>
   </si>
   <si>
     <t>table -&gt; tbody -&gt; tr -&gt; td</t>
   </si>
   <si>
-    <t>ul class="products" -&gt; li -&gt; a href</t>
-  </si>
-  <si>
-    <t>ul class="products" -&gt; li -&gt; img src</t>
-  </si>
-  <si>
     <t>class="…product…"</t>
   </si>
   <si>
     <t>class / id="…product…" -&gt; a href</t>
   </si>
   <si>
-    <t>class / id="…product…" -&gt; img src</t>
-  </si>
-  <si>
     <t>id="product" -&gt; p</t>
   </si>
   <si>
-    <t>id="content" -&gt; a href</t>
-  </si>
-  <si>
-    <t>id="content" -&gt; img src</t>
-  </si>
-  <si>
     <t>id="content"</t>
   </si>
   <si>
@@ -1257,9 +1185,6 @@
     <t>ul id="…product…" -&gt; li -&gt; a href</t>
   </si>
   <si>
-    <t>ul id="…product…" -&gt; li -&gt; img src</t>
-  </si>
-  <si>
     <t>id="…description…"</t>
   </si>
   <si>
@@ -1269,9 +1194,6 @@
     <t>class="post" -&gt; p</t>
   </si>
   <si>
-    <t>class="post" -&gt; img src</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
@@ -1284,69 +1206,33 @@
     <t>id="content" -&gt; ul class="item_list" -&gt; li -&gt; a href</t>
   </si>
   <si>
-    <t>id="content" -&gt; ul class="item_list" -&gt; li -&gt; a href style</t>
-  </si>
-  <si>
     <t>class="description"</t>
   </si>
   <si>
     <t>id="mainContentArea" -&gt; ul -&gt; li -&gt; a href</t>
   </si>
   <si>
-    <t>id="mainContentArea" -&gt; ul -&gt; li -&gt; img src</t>
-  </si>
-  <si>
     <t>id="mainContentArea" -&gt; ul -&gt; li -&gt; p</t>
   </si>
   <si>
     <t>id="content" -&gt; ul -&gt; li -&gt; a href</t>
   </si>
   <si>
-    <t>id="content" -&gt; ul -&gt; li -&gt; img src</t>
-  </si>
-  <si>
     <t>id="content" -&gt; ul -&gt; li -&gt; p</t>
   </si>
   <si>
-    <t>launching soon</t>
-  </si>
-  <si>
     <t>id="products" -&gt; a href</t>
   </si>
   <si>
-    <t>id="products" -&gt; img src</t>
-  </si>
-  <si>
     <t>id / class="product" -&gt; p</t>
   </si>
   <si>
-    <t>class="portfolio_item grid_item postclass" -&gt; a href</t>
-  </si>
-  <si>
     <t>article class="post… portfolio"</t>
   </si>
   <si>
-    <t>article class="post… portfolio" -&gt; ul class="prtfolio-content" -&gt; li</t>
-  </si>
-  <si>
-    <t>uses Javascript?</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>ul/li/a</t>
   </si>
   <si>
-    <t>Additional Comments</t>
-  </si>
-  <si>
-    <t>Also has a section "books and dvds". Should this be crawled too?</t>
-  </si>
-  <si>
-    <t>http://moderntimesberlin.com/achive/&lt;number&gt;.jpg and http://moderntimesberlin.com/weekly/&lt;number&gt;.jpg</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -1359,27 +1245,15 @@
     <t>ul -&gt; li id="items" -&gt; a href</t>
   </si>
   <si>
-    <t>div class="product-detail…" -&gt; ul -&gt; li -&gt; img src</t>
-  </si>
-  <si>
     <t>div id / class="product-detail" -&gt; p</t>
   </si>
   <si>
-    <t>hedenverleden.nl/en</t>
-  </si>
-  <si>
     <t>div id="content" -&gt; … -&gt; a href</t>
   </si>
   <si>
-    <t>div id="content" … -&gt; img src</t>
-  </si>
-  <si>
     <t>div id="content" … -&gt; h1 / p</t>
   </si>
   <si>
-    <t>div class="content" ul -&gt; li -&gt; img src</t>
-  </si>
-  <si>
     <t>div class="content" -&gt; ul -&gt; li -&gt; a href</t>
   </si>
   <si>
@@ -1389,48 +1263,30 @@
     <t>section class="products …" -&gt; section class="…post…" -&gt; div -&gt; a href</t>
   </si>
   <si>
-    <t>section class="products …" -&gt; section class="…post…" -&gt; div -&gt; img src</t>
-  </si>
-  <si>
     <t>div id / class="product" -&gt; p</t>
   </si>
   <si>
-    <t>table class="product-meta" -&gt; tbody -&gt; tr -&gt; td</t>
-  </si>
-  <si>
     <t>ul class="proudcts-list" -&gt; li -&gt; div -&gt; a href</t>
   </si>
   <si>
-    <t>ul class="proudcts-list" -&gt; li -&gt; div -&gt; a style</t>
-  </si>
-  <si>
     <t>article id / class="post" -&gt; ul -&gt; div class="content"</t>
   </si>
   <si>
     <t>ul id="product_list" -&gt; li -&gt; div -&gt; a href</t>
   </si>
   <si>
-    <t>ul id="product_list" -&gt; li -&gt; div -&gt; img src</t>
-  </si>
-  <si>
     <t>div class="product_page -&gt; div -&gt; div / div id="short_description"</t>
   </si>
   <si>
     <t>ul id="proudcts" -&gt; li -&gt; a href</t>
   </si>
   <si>
-    <t>ul id="products" -&gt; li -&gt; img src</t>
-  </si>
-  <si>
     <t>div id="product_info" -&gt; section -&gt; p</t>
   </si>
   <si>
     <t>div class="m-shop-listing" -&gt; ul -&gt; li -&gt; a href</t>
   </si>
   <si>
-    <t>div class="m-shop-listing" -&gt; ul -&gt; li -&gt; img src</t>
-  </si>
-  <si>
     <t>div class="m-shop-item-details" -&gt; p</t>
   </si>
   <si>
@@ -1443,18 +1299,12 @@
     <t>article class="post" -&gt; div -&gt; div -&gt; a href</t>
   </si>
   <si>
-    <t>article class="post" -&gt; div -&gt; div -&gt; img src</t>
-  </si>
-  <si>
     <t>article class="post" -&gt; div</t>
   </si>
   <si>
     <t>div class="product" -&gt; div -&gt; a href</t>
   </si>
   <si>
-    <t>div class="product" -&gt; div</t>
-  </si>
-  <si>
     <t>div class="detail" -&gt;</t>
   </si>
   <si>
@@ -1467,9 +1317,6 @@
     <t xml:space="preserve">div class="gallery" -&gt; div id="thumbtitle" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">yes </t>
-  </si>
-  <si>
     <t>div id="content" -&gt; div -&gt; div -&gt; div -&gt;</t>
   </si>
   <si>
@@ -1509,15 +1356,9 @@
     <t>table -&gt; tbody -&gt; tr -&gt; td -&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">table -&gt; tbody -&gt; tr -&gt; td -&gt; </t>
-  </si>
-  <si>
     <t>div id="content" -&gt; table -&gt; tbody -&gt; tr -&gt; td -&gt;</t>
   </si>
   <si>
-    <t>nothing comparable to a pattern found so far</t>
-  </si>
-  <si>
     <t>div class="fp_product_box" -&gt; div -&gt; div -&gt;</t>
   </si>
   <si>
@@ -1530,9 +1371,6 @@
     <t>div class="proudct-text"</t>
   </si>
   <si>
-    <t>div class="product-table"</t>
-  </si>
-  <si>
     <t>div id="content" -&gt; article id="post…" -&gt; div class="entry-content" -&gt; div -&gt; div -&gt; div -&gt;</t>
   </si>
   <si>
@@ -1545,9 +1383,6 @@
     <t>div id="content" -&gt; div -&gt;</t>
   </si>
   <si>
-    <t>nothing comparable to a pattern</t>
-  </si>
-  <si>
     <t>div id="content" -&gt; div -&gt; div id="post…" -&gt;</t>
   </si>
   <si>
@@ -1569,18 +1404,12 @@
     <t>div class="content single" -&gt; div -&gt; div class="single-post" -&gt;</t>
   </si>
   <si>
-    <t>div class="content-m" -&gt; div -&gt; div -&gt; div -&gt; div -&gt;</t>
-  </si>
-  <si>
     <t>div class="content-m" -&gt; div -&gt; div[3] -&gt; div -&gt; div -&gt;</t>
   </si>
   <si>
     <t>div class="products" -&gt;</t>
   </si>
   <si>
-    <t>div class="products"</t>
-  </si>
-  <si>
     <t>section class="content…" -&gt; div -&gt;</t>
   </si>
   <si>
@@ -1590,9 +1419,6 @@
     <t>div id="category_item_list" -&gt; ul -&gt; li -&gt;</t>
   </si>
   <si>
-    <t>div id="category_item_list" -&gt; ul -&gt; li -&gt;div</t>
-  </si>
-  <si>
     <t>java script needed</t>
   </si>
   <si>
@@ -1602,14 +1428,575 @@
     <t>div id="description" -&gt;</t>
   </si>
   <si>
-    <t>no products</t>
+    <t>article class="category grid__product"</t>
+  </si>
+  <si>
+    <t>class="post"</t>
+  </si>
+  <si>
+    <t>table class="product…"</t>
+  </si>
+  <si>
+    <t>ul class="products"</t>
+  </si>
+  <si>
+    <t>class / id="…product…"</t>
+  </si>
+  <si>
+    <t>article class="product"</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>hedenverleden.nl</t>
+  </si>
+  <si>
+    <t>captures too much</t>
+  </si>
+  <si>
+    <t>captures js at the end</t>
+  </si>
+  <si>
+    <t>article site</t>
+  </si>
+  <si>
+    <t>http://flatlanddesign.eu/?/Schoolchairs/S1029GalvanitasS16zw/</t>
+  </si>
+  <si>
+    <t>http://www.felixbachmann-antiquitaeten.de/details/?detailalias=grosser-esstisch-industrietisch</t>
+  </si>
+  <si>
+    <t>http://www.chaseandsorensen.com/collections/chairs/products/teak-framed-lounge-chair-1</t>
+  </si>
+  <si>
+    <t>http://20thcquarters.com/component/jshopping/product/view/2/591?Itemid=0</t>
+  </si>
+  <si>
+    <t>http://www.etoz.ch/model-2145/</t>
+  </si>
+  <si>
+    <t>http://hedenverleden.nl/en/producten/verlichting/set-artemide-kalias-lampen</t>
+  </si>
+  <si>
+    <t>http://designrevisited.com/item/283/a-set-of-four-marko-industrial-dinner-chairs/</t>
+  </si>
+  <si>
+    <t>clean text at the end</t>
+  </si>
+  <si>
+    <t>http://www.bumadesign.ch/designklassiker/sideboard-32/kategorie/neuzugaenge</t>
+  </si>
+  <si>
+    <t>http://www.lorfordsantiques.com/product/rare-pair-of-lead-cisterns-c-1930-3221</t>
+  </si>
+  <si>
+    <t>http://devreugdedesign.com/shop-2/1950s-beautiful-french-ceramic-table-lamp-with-brass-base</t>
+  </si>
+  <si>
+    <t>http://www.dlarssoninterior.com/18th-c-swedish-rococo-cabinet_item_10249</t>
+  </si>
+  <si>
+    <t>https://www.1stdibs.com/furniture/seating/lounge-chairs/pair-of-ari-lounge-chairs/id-f_2500112/</t>
+  </si>
+  <si>
+    <t>http://cornershop-design.com/ceramique-art-deco/820-paire-de-serre-livres-aux-pigeons-g-vendrillon.html</t>
+  </si>
+  <si>
+    <t>http://contemporary-showroom.com/collection/brass-rams-head-coffee-table/</t>
+  </si>
+  <si>
+    <t>http://www.demachinekamer.nl/td4-tafel-cementgrijs-ral-7033-walnoot-blad-200x90</t>
+  </si>
+  <si>
+    <t>http://www.506070.co.uk/product/hans-wegner-ch-27</t>
+  </si>
+  <si>
+    <t>http://www.atelier-de-papy.com/fr/home/1045-meuble-de-metier.html</t>
+  </si>
+  <si>
+    <t>http://www.madeindenmark.be/product/ib-kofod-larsen-shell-chair</t>
+  </si>
+  <si>
+    <t>http://mdezign.info/lighting/hala-zeist-desk-lamp-70s-unknown-designer-.html</t>
+  </si>
+  <si>
+    <t>http://17design.nl/meubels/fu00404</t>
+  </si>
+  <si>
+    <t>http://www.20emesiecle.be/en/1970s-walnut-burl-brass-square-shaped-coffee-table.html</t>
+  </si>
+  <si>
+    <t>http://briceberard.com/gallery#4-garden-tables-985504</t>
+  </si>
+  <si>
+    <t>http://www.brownrigg-interiors.co.uk/antique-furniture/antique-armoire-bureau-cupboards/exceptional-18th-century-walnut-bureau-secretaire-2-49-refno-7590/</t>
+  </si>
+  <si>
+    <t>http://www.houseofdesign.dk/template/t04.php?menuId=832</t>
+  </si>
+  <si>
+    <t>http://ikwoonvintage.nl/winkel/dining-tables-and-chairs/armchair-for-office-by-gijs-van-der-sluis/</t>
+  </si>
+  <si>
+    <t>http://norepro.co.uk/furniture/peter_hvidt_minerva_corner_sofa.html</t>
+  </si>
+  <si>
+    <t>http://www.retrohuis.nl/5/0/202/545/palissander_danish_bureau</t>
+  </si>
+  <si>
+    <t>http://schalling.se/furnitures/17993/hans-wegner-ch-28-easy-chairs</t>
+  </si>
+  <si>
+    <t>http://www.sixandsons.com/products/qwstion-weekender-washed-grey</t>
+  </si>
+  <si>
+    <t>http://spoor38.nl/online-assortiment/lampen/553/art-0743/</t>
+  </si>
+  <si>
+    <t>http://www.vittorioragone.com/stock/product.php?p=80?img=0</t>
+  </si>
+  <si>
+    <t>captures too much text</t>
+  </si>
+  <si>
+    <t>http://www.d-68.com/projects/bilumen-ashtray-226</t>
+  </si>
+  <si>
+    <t>http://thefurniturerooms.co.uk/antique-furniture/antique-chairs/steel-brass-and-leather-victorian-campaign-chair.html</t>
+  </si>
+  <si>
+    <t>http://www.markusfriedrichstaab.com/?q=work/1964</t>
+  </si>
+  <si>
+    <t>http://abelsloane1934.com/stool-60-variation-alvar-aalto-1933/</t>
+  </si>
+  <si>
+    <t>http://www.ilrestaurato.com/en/70s-mirror-design-by-bonetto/</t>
+  </si>
+  <si>
+    <t>title missing; hidden css</t>
+  </si>
+  <si>
+    <t>hidden css</t>
+  </si>
+  <si>
+    <t>http://www.degeleetalage.nl/jaren-60-tweezits-bank-sofa-yngve-ekstrom-pastoe-zweden/</t>
+  </si>
+  <si>
+    <t>http://decompaen.nl/01_easyseats1/01.html</t>
+  </si>
+  <si>
+    <t>http://050design.nl/Design/Stoelen/koehoorn_stoelen_tijsseling.htm</t>
+  </si>
+  <si>
+    <t>http://www.mobelfabrik.be/projects/item356/</t>
+  </si>
+  <si>
+    <t>http://46kloosterstraat.com/index.cfm?page=Collection&amp;cat=4583&amp;category=02%20Lighting</t>
+  </si>
+  <si>
+    <t>http://olibil.com/2.htm</t>
+  </si>
+  <si>
+    <t>http://20thcentury-decorative-arts.co.uk/limousin-lamp.htm</t>
+  </si>
+  <si>
+    <t>http://spotgallery.it/1/mobili_652198.html</t>
+  </si>
+  <si>
+    <t>http://www.mobiliartdeco.it/armadi.html</t>
+  </si>
+  <si>
+    <t>http://www.juanmalizana.com/shop/</t>
+  </si>
+  <si>
+    <t>http://fiftease.com/fr/mobilier-SB15-Charlotte_PERRIAND_CHARLOTTE_PERRIAND_Fauteuil_en_frene_teinte_paille_bauche_modele_n_21_Creation_1935_Edition_BCB_et_G_annees_50.php</t>
+  </si>
+  <si>
+    <t>http://www.clarkepickett.com/catalogue_detail.asp?nShopProd_ID={941EBC12-FC0A-4EEE-9673-F019E30543B0}&amp;src=catalogue_list%2Easp%3FnShopProdCat_ID%3D%7B24BE6534-2131-46A0-9D48-3DD0C1A2A908%7D%26nPageNo%3D1%26src%3Dcatalogue%2Easp</t>
+  </si>
+  <si>
+    <t>www.clarkepickett.com</t>
+  </si>
+  <si>
+    <t>collects all items</t>
+  </si>
+  <si>
+    <t>http://www.orangeandbrown.co.uk/item/hans-wener-teak-single-bed</t>
+  </si>
+  <si>
+    <t>http://palissander.nl/furniture/mogensen-kvadratisk/</t>
+  </si>
+  <si>
+    <t>miscaptures the beginning</t>
+  </si>
+  <si>
+    <t>http://www.relax-factory.com/portfolio</t>
+  </si>
+  <si>
+    <t>http://www.sobrocindus.com/2014/06/deco-vintage-ancien-jeu.html</t>
+  </si>
+  <si>
+    <t>http://www.antiquesobjects.com/new_arrivals?item=1194&amp;page=1</t>
+  </si>
+  <si>
+    <t>generates a page not found (404)</t>
+  </si>
+  <si>
+    <t>Working?</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>'Alvar Aalto\nModel 2145, 1942/ 1950s \nMore\nEmbru, Switzerland\n75 cm x 200 cm x 90 cm\nTubular steel, Original cushion with woolen upholstery, bakelite armrests\nFolding system has been renewed.\nC.f. Blaser: Alvar Aalto als Designer, Pg. 109\nPrice on request\n×'</t>
+  </si>
+  <si>
+    <t>'Bilumen Ashtray 226 – Gabriella Valli 1967\nBilumen Ashtray 226\n• objects\nRarissimo portacenere in melamina marchiato Bilumen, disegnato da Gabriella Valli nel 1967. In perfette condizioni vintage, non presenta nessun segno visibile.\nExtremely rare melamine ashtray marked Bilumen, designed in 1967 by Gabriella Valli. In very good vintage condition, it shows no visible signs of use. \n• Item Nr.: Obj0037\n• Material: melamine\n• Measurements: H.7xD.20 cm\n• Manufacturer: Bilumen\n• Condition: very good, no age marks\n• Style: pop\n• Period: 1967\n• Price: € 100 \nIf you wish more information or to place an order, please send us an email and state Item Nr. in your email.\nPin It\nprevious'</t>
+  </si>
+  <si>
+    <t>"Home » Modernariato » Mobili\nMobili\nServomuto Ico Parisi\nDesign Ico Parisi per F.lli Reguitti - 1950 circa - cm 45x109\n09\nImmagini\nTavolino anni '50\nTavolino in faggio e vetro - cm 56 x 80 x 52,5h - buone condizioni\n05\nImmagini\nAlla maniera di Gio Ponti\nScrivania anni '50 - Mogano e laminato - cm 117x65x79h - buone condizioni, qualche segno\n12\nImmagini\n4 Sawbuck CH29 Chairs\nDesign Hans J. Wegner per Carl Hansen 1952 - L53 P49 H81 - buone condizioni - ritappezzate\n09\nImmagini\nPoltrona ISA Bergamo anni '60\nVenduta\n10\nImmagini\nSideboard Olivetti Arco\ndesign BBPR 1962 - 180 x 42 h 76 - buone condizioni, vedi foto\n04\nImmagini\nScrittoio Olivetti Arco\nVenduto\n10\nImmagini\nTavolino Gallotti e Radice\nMod. Sir T32, design Pierangelo Gallotti 1971, ottone e cristallo, 80 x 80 h 33,5\n04\nImmagini\nScrivania Arne Vodder\nVenduta\n13\nImmagini\nCarrello attr. Cesare Lacca\nLegno ebanizzato - Vassoi estraibili, portariviste, portabottiglie - l 56 p 63 h 89\n06\nImmagini\n4 sedie pieghevoli Mobel Luisa\nDesign Marcello Cuneo 1970, metallo cromato, seduta in skai, ottime condizioni\n06\nImmagini\nScrivania anni '50\nScrivania in faggio con piano in laminato - cm120x65max p.x75h\n06\nImmagini\nBBPR Attaccapanni Melpomene\ndesign studio BBPR - prod. Artemide - 1968 - Ã¸40x180h - Ottone cromato bruno\n04\nImmagini\nPoltroncine anni '50\n2 sedie in metallo e skai - anni '50 - l.43 p.50 a.75 cm - ottime condizioni\n06\nImmagini\nTavolino Silvio Cavatorta\nLegno e metallo verniciato - anni 50/60 - cm 50x90x40a - ottime condizioni\n07\nImmagini\nEames Side Chair Dowel Base\nscocca originale Herman Miller, base nuova - buone condizioni - 4 disponibili\n08\nImmagini\nSottsass Secretaire Alitalia\ndesign: Sottsass - anno: 1995 - dim: l.80, p.62, a.198 - buone condizioni\n12\nImmagini\n4 Sedie Sormani\ndesign: Giuseppe Gibelli - anno: 1963 - dim: l.46 p.44 a.82 - cond: ottime\n04\nImmagini"</t>
+  </si>
+  <si>
+    <t>'Titel\nSideboard\nDesigner\nFlorence Knoll\nHersteller\nKnoll\nEntwurf\n1950\nBeschrieb\nSideboard, Sockel Stahl vierkant verchromt, Korpus Holz, Türen und Schubladen, Top Marmor weiss\nMasse\nB: 191, T: 46, H: 65\nArtikelnummer\n3522\nPreis\nCHF 3500.–\nStandort\nNiedergösgen\n←'</t>
+  </si>
+  <si>
+    <t>'cupboard\nmanufactured by Omann Junior (DK)\nin rosewood\nin good vintage condition\nwe have a pair of these cupboards!\nwe sell them per piece.\ndimensions:\nheight: 81 cm\nwidth: 120 cm\ndepth: 44 cm\nrequest more info'</t>
+  </si>
+  <si>
+    <t>not anymore</t>
+  </si>
+  <si>
+    <t>'27\nApr\nVintage 70s mirror nail design by Bonetto, rare wood effect color.\nVery good vintage condition, inevitable sign of aged.\nSize: H. 160 (cm)\nPrice on request!'</t>
+  </si>
+  <si>
+    <t>'Produced:\nFrance\nDesign:\nUnknown\nSizes:\nDiameter 38 x H. 90 cm\nCondition:\nGood\nPrice:\n€ 225,–\nIn stock:\n1\nArt. nr:\n2292l\nLocation:\nWarehouse'</t>
+  </si>
+  <si>
+    <t>'Code: 10249\n• Dimensions:\nW 144cm\xa0(56.7")H 208cm\xa0(81.9")D 60cm\xa0(23.6")'</t>
+  </si>
+  <si>
+    <t>'large Dining Table, Industrial Table\nMetalbase, Beech, Top out of old Pew height: 29.9 in width: 98.4 in depth: 35.4 in \nItem no.: 150503\nprice on request'</t>
+  </si>
+  <si>
+    <t>"Categorie: School Chairs\nGalvanitas - S16\nS1029. € 95,-/pcs quantity: 2\nInterested? \n\xa0Mail us &lt;click here&gt; \nFlatland reference nr: S1029\nSize: W 40 x D 47 x H 80 \nSeat Height: H 46 cm \nDesigner: unknown \nManufacturer: Galvanitas \nModel: S16 \nYear: 60s/70s \nMaterial: wood, metal\nQuantity: 2 \nCondition: good \nPrice: EUR 95,-/pcs \nIndustrial Galvanitas chairs model S16, not stakckable \nGrey metal frame with a black plywood seating. Brand present.\nIn the tab 'Designers' you'll find more information about the designers we have in our collection."</t>
+  </si>
+  <si>
+    <t>'Adjustable desk lamp\nDesign: Unknown\nManufacturer: Hala Zeist (NL)\nDesign year: ca 1970s\nColor:\xa0\xa0black chrome\nPrice: visit our website on www.davintage.nl'</t>
+  </si>
+  <si>
+    <t>'Bovenkamp salontafel\nFabrikant\nBovenkamp\nPeriode\n1960’s\nUitvoering\nTeak, eiken\nConditie\nGoed\n» Reageer «\nAfmetingen\nHoog\n42cm\nBreed\n150cm\nDiep\n51cm\nPrijs\n€ 375,-'</t>
+  </si>
+  <si>
+    <t>'minerva corner sofa / daybed\npeter hvidt for france &amp; son\nteak, cane, chrome, velvet\nLong sofa W: 195cm, D: 76cm, H: 78cm\nSmall sofa W: 125cm, D: 76cm, H: 78cm\nSeat height: 38cm\nTable W: 76cm, D: 76cm, H: 64cm\nA 1960s Danish "Minerva" corner sofa set with corner table by Peter Hvidt &amp; Orla Molgaard.\nIn teak, cane and chrome detail, with luxurious cream velvet covers, this modular set is amongst Hvidt and Morlgaard\'s most successful and versatile designs. \nThe armrests can be placed on either side, allowing for interchangeable positioning of the sofas. \nThe tapered legs, geometric backs and sculpted edges create a beautiful impression from all angles. The covers can be removed for dry cleaning.\nThe teak and cane are in excellent condition, with one or two very minor marks commensurate with age.\nThe longer sofa is 195cm in length, the shorter sofa is 125cm in length. The table is 76cm in length. The longest total side is 271cm, the shorter side 201cm.\nIn excellent visual and structural condition, this set would suit any contemporary interior.\nAll webbing is in excellent condition. The France &amp; Son plaque is affixed to the frame.\nPrice on request\nenquire'</t>
+  </si>
+  <si>
+    <t>'hans wener teak single* bed\nPRICE\n£795.00\nDESIGNER\nHans J. Wegner\nMANUFACTURER\nGetama\nORIGIN\nDenmark\nDESCRIPTION\nA fantastic teak Hans Wegner single bed. Perfect for the spare room or day bed in the home office. Probably one of the greatest children`s bed in the world..\nA simple design as with all Hans Wegners beds from the late 1950s through to the early 1970s. The teak is a lovely colour throughout and in very good condition.\nHans Wegner is the designer that has made Danish furniture the leader of all mid-century modern furniture.\nmattress size 80.5cm width X 200cm length\nExternal size **cm width X **cm length **cm high\nThis bed is Danish and dates from the early 1960s, sizes differ from UK sizes. Please check mattress size,a small single should fir or made to measure from your local store.\nDIMENSIONS\nmattress size*\n80.5cm X 200cm \nCall the store to pay over the phone with all cards.\nWe also accept bank transfer and paypal.'</t>
+  </si>
+  <si>
+    <t>"Furniture\n&gt;&gt; \nMogensen ‘Kvadratisk’ \nRare hand crafted 'Kvadratisk' coffee table designed by Borge Mogensen in the 1950s and manufactured by Fredericia Stolefabrik in Denmark. This (soaped) solid oak table with square top on asymmetrical base is in a very good condition. \nDesigner\nBorge Mogensen\nManufacturer\nFredericia Stolefabrik (Denmark)\nModel\nKvadratisk\nYear\n1950s\nMeasurements \nH55 x W97 x D97 CM\nPrice\n1200 euro"</t>
+  </si>
+  <si>
+    <t>'Artikelnummer: 545\n\xa0\nDeens palissander bureau met boekenvak voorzijde.\nDaardoor kan dit bureau in de vrije ruimte worden geplaatst.\n\xa0\nBureau is in een uitstekende staat.\n\xa0\nAfmetingen : L 109 cm , D 61 cm , H 73 cm.\n\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0\xa0 Breedte zitgedeelte 52 cm , hoogte zitgedeelte 59,5 cm.\n\xa0\nPrijs 650 euro.\nKlik voor meer informatie\nLike ons op Facebook\nVolg ons op Facebook'</t>
+  </si>
+  <si>
+    <t>'Hans Wegner CH-28 easy chairs\nNEXT\nPREVIOUS\nTags: carl hansen &amp; son, ch-28, hans wegner\n• A pair of easy chairs model CH-28 designed by Hans Wegner\n• Produced by Carl Hansen &amp; Søn in Denmark\n• 1951\n• Oak and original black leather\n• Excellent vintage condition, with minor signs of usage\n• Mid century, Scandinavian\n• Dimensions (W x D x H): 75\xa0x 68 x 73 cm, SH: 37 cm\n• Price: 12000 €\n• Item no:\xa017993\nInquire\nRelated'</t>
+  </si>
+  <si>
+    <t>'Déco vintage ancien jeu\npar sobrocindus.com\n\xa0-\xa0\n26 Février 2015, 16:08\n\xa0-\xa0Catégories :\n#Déco vintage industrielle \nPour agrandir une ou plusieurs photos, il vous suffit de cliquer sur celles-ci.\n\xa0\nPrix :\xa0 75 euros\nInformation par simple email :\xa0sobrocindus@gmail.com\nMerci de nous envoyer par email le lien de l’article \nOu par téléphone : + 33 (0)6 10 610\xa0633\n\xa0\nDimension :\nLargeur : 24\nProfondeur : 13\nHauteur : 50\n\xa0\nNous garantissons que notre mobilier industriel ou vintage, nos meubles d’atelier, objets de décoration sont tous d’époque (1900-1950), originaux et authentiques. La rénovation a été réalisée avec beaucoup de soins et nous avons utilisé des produits français de très grande qualité.\n\xa0\nLivraison :\nNous pouvons envoyer ou organiser le transport de vos achats par un transporteur professionnel sous 10 jours pour la région Parisienne et sous 3 à 4 semaines pour toutes autres régions de France ou de Belgique.\nPour les autres pays : devis sur demande.\n\xa0\nPrix indicatif pour l’envoi ou le transport de cet article en France\xa0: \nPar la poste 25 €\n\xa0\nVous souhaitez voir cet article:\nNotre show-room de 250 m2 est situé au 61 rue Masséna 5900 Tourcoing dans le Nord entre Paris et Bruxelles, à 10 min de Lille et à 5 mm de la Belgique.\nNous sommes ouverts le vendredi, samedi et dimanche de 14 h à 19 h et tous autres les jours sur rendez-vous.\n\xa0\nRèglement :\nEspèces :\nRéservé aux livraisons dans le Nord Pas-de-Calais ou en Belgique ou enlèvement en notre show-room à Tourcoing.\nVirement bancaire :\nLivraison ou enlèvement immédiat, sans aucun frais.\nChèque bancaire ou postal :\nLivraison ou enlèvement 20 jours après encaissement.\n\xa0\nWe speak English!\nAny questions? \xa0Don’t hesitate to contact us!\n\xa0\n\xa0\nPartager cet article\nRepost\n0\nArticle précédent\nArticle suivant\nArticles récents\n•'</t>
+  </si>
+  <si>
+    <t>404 error???</t>
+  </si>
+  <si>
+    <t>'Antique Horseshoe chair\nGreat example of a Chinese Horseshoe chair.\nsuperb condition.\nenquiries: info@20thcquarters.com'</t>
+  </si>
+  <si>
+    <t>wrapper' confuses</t>
+  </si>
+  <si>
+    <t>catalog confuses</t>
+  </si>
+  <si>
+    <t>galerie-jungmann.com</t>
+  </si>
+  <si>
+    <t>http://www.galerie-jungmann.com/portfolio/paire-de-meuble-dappui-1960-en-palissandre/</t>
+  </si>
+  <si>
+    <t>wrap contentclass</t>
+  </si>
+  <si>
+    <t>'White enamelled reflector with cast-iron dome | Large\n€320 + tax\nUnusual hanging lamp supposedly used in large kitchens or abattoirs. Cable guides and hanging design echo early Hungarian production. Cast-iron dome with E27 bulb application. Professionally restored to former glory.\nThis lamp is available in two diameter sizes (36 cm and 41 cm) and in your own cord color and length!\nPlease feel free to contact us.\nDimensions:Diameter: 41 cm (16.1")\nHeight: 39 cm (15.4")\nAvailability:2\nDownload Fact-Sheet (pdf-file) \nI\'m interested in this product &gt;&gt;\nI´m interested in the product\nPlease use this form to ask questions about our products, delivery terms or hiring items.\nName *\nE-Mail *\nSubject *\nYour Message\nSend me a copy of this message.\n+ Save &amp; Share\nMore Photos\n•'</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>http://www.goldstein-interieur.com/items/pendant-lighting/dome-pendants</t>
+  </si>
+  <si>
+    <t>try next element</t>
+  </si>
+  <si>
+    <t>http://uniquevintageindustrial.com/product/seating/vintage-leather-chesterfield-3-seater-sofa</t>
+  </si>
+  <si>
+    <t>http://www.johanna-schultz.de/produkt/acryl-buchstabe-beleuchtetes-r/</t>
+  </si>
+  <si>
+    <t>http://www.kunzenhof20.de/de/2015/06/10/kirschbaumtisch-vitra-gestell/</t>
+  </si>
+  <si>
+    <t>correct element but does not capture</t>
+  </si>
+  <si>
+    <t>http://kristiankappel.com/Chairs.html#0</t>
+  </si>
+  <si>
+    <t>document_fromstring fails</t>
+  </si>
+  <si>
+    <t>http://www.legrenier.eu/fr/stock.html#!/fr/stock/produit/paire-de-fauteuils-metal-bombe-1930.html</t>
+  </si>
+  <si>
+    <t>http://shop.mar-den.co.uk/product/mid-century-rose-wood-coffee-table</t>
+  </si>
+  <si>
+    <t>http://www.metalandwoods.com/index.php?route=product/product&amp;product_id=324</t>
+  </si>
+  <si>
+    <t>captures partially</t>
+  </si>
+  <si>
+    <t>http://www.moblerstore.com/?p=5621</t>
+  </si>
+  <si>
+    <t>'Imperator bakelite explosion proof wall lamp\nSourced from a dismantled plant'</t>
+  </si>
+  <si>
+    <t>http://modernariato.fr/collections/mobilier-furniture/products/paire-de-chaises-alessia-noires-giotto-stoppino</t>
+  </si>
+  <si>
+    <t>'Paire de chaises Alessia noires Giotto Stoppino\n€520.00\nQuantity: \n-\n+\nCréateur\xa0: Giotto Stoppino (italien 1926-2011)\nPaire de chaises Alessia\nEditeur\xa0:\xa0 Driade \nDate de création\xa0:1970\nMatériaux\xa0: Assise en fibre de verre renforcée et piétement tubulaire en métal chromé\nDimensions: H: 70 cm\n+\nSigné sous la base: Driade\nSee more: Assise\nPartager\nTweet\nTags: Années 70, Italie \nNext ›'</t>
+  </si>
+  <si>
+    <t>http://www.modernvintage.nl/product/eames-herman-miller-rio-rosewood-palissander-lounge-chair-not-vitra</t>
+  </si>
+  <si>
+    <t>"Eames Herman Miller Rio Rosewood Palissander Lounge Chair not Vitra\n€5,795.00\nAdd to Cart\nCharles and Ray Eames\nLounge Chair &amp; Ottoman (670 &amp; 671) - Rosewood, Black leather\nHerman Miller, 1980's\nPrice: € 5795,-\nThe Eames Lounge Chair and ottoman are instantly recognisable as midcentury classics. They are in the permanent collections of major art museums and fixtures in stylish homes and offices all over the world, but they’re more than sophisticated style, they also provide luxurious comfort.\nThis Lounge Chair is in the Rio Rosewood finish and in beautiful condition! It is about 30 years old. Some signs of use, but in very nice condition and ready to go for the rest of your life.\nThis is the iconic version lounge chair in rosewood and black leather, a collector's item. Even the Eames' themselves had this version in their house. If you want the icon, and something very special and stable in value, this is your chance!\nOther questions about combined shipping, payment methods or anything else? We’re there to help you finding your perfect chair :) Just drop us a line at info@modernvintage.nl. Thanks for looking!"</t>
+  </si>
+  <si>
+    <t>http://www.city-furniture.be/981/Sideboard_by_William_Watting_for_Fristho/</t>
+  </si>
+  <si>
+    <t>'SIDEBOARD BY WILLIAM WATTING FOR FRISTHO\nDESCRIPTION\nLarge 1950s Sideboard by William Watting for Fristho Holland. The sideboard has four sliding doors and four drawers in the middle. Two sliding doors are covered with Pandanus. The base consists out of eight brass legs. \nDIMENSIONS\nHeight\n: \xa0\xa0\xa0\xa0On Request\nWidth\n: \xa0\xa0\xa0\xa0On Request\nDepth\n: \xa0\xa0\xa0\xa0On Request\nAVAILABLE \nLOGIN TO VIEW PRICES \nFIND OUT SHIPPING COSTS\nREQUEST MORE INFO\nMAIL TO A FRIEND'</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>http://mooiestukken.nl/Ludwig-Mies-van-der-Rohe-MR-Side-Chair-1</t>
+  </si>
+  <si>
+    <t>no centent</t>
+  </si>
+  <si>
+    <t>http://www.portuondo.fr/pierre-folie-chaufeus.html</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>http://www.rawmaterials.nl/meubels/kasten/recycled-teak-serie.html</t>
+  </si>
+  <si>
+    <t>http://salonfahig.nl/Salonfahig/V163_Afra_and_Tobia_Scarpa_butterfy_Flos.html</t>
+  </si>
+  <si>
+    <t>http://www.northseadesign.nl/en/frama-cph-atelier-light-bulb-smoke.html</t>
+  </si>
+  <si>
+    <t>http://www.indenfor.com/chandelier/blue-chandelier</t>
+  </si>
+  <si>
+    <t>no content</t>
+  </si>
+  <si>
+    <t>http://trushalakhani.com/furniture/paulin-desk.html</t>
+  </si>
+  <si>
+    <t>http://tussenin.eu/index.php?page=Furniture&amp;article=765</t>
+  </si>
+  <si>
+    <t>403 Client Error</t>
+  </si>
+  <si>
+    <t>http://verroest.nl/?p=4042</t>
+  </si>
+  <si>
+    <t>http://www.vervlogenjaren.nl/itemviewer.php?oid=2975</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>not working</t>
+  </si>
+  <si>
+    <t>http://www.amdesigns.com/en/box-spring-bed-140-x-200-1673.htm</t>
+  </si>
+  <si>
+    <t>http://artofvintage.nl/chair-juhl-bwana.html</t>
+  </si>
+  <si>
+    <t>"New Arrivals\nFurniture\nLighting\nArt and Objects\nArchives\ninfo@artofvintage.nl\n\xa0\n\xa0\n\xa0\n\xa0\n\xa0\n\xa0\nOntwerper\nFinn Juhl \nModel\n'Bwana' Chair\nFabrikant\nFrance &amp; SÃ¸n Denmark \nJaar\n1962\nBeschrijving\n'Bwana' Lounge chair and ottoman by Finn Juhl for France &amp; SÃ¸n. Teak and black leather. The 'Bwana' became the successor of the HÃ¸fdingestol 'Chieftain chair' (HÃ¸fdingestol) in 1962. Excellent condition. Marked all over.\nLiterature: Finn Juhl, MÃ¸belkunst Arkitektur Brugkunst, Arkitektens Forlag 1990, pag. 63. \nPrijs\nâ\x82¬ 5850\nStel een vraag\nStuur door"</t>
+  </si>
+  <si>
+    <t>http://barroisantiques.com/index.cfm?page=inventory&amp;cat=3000&amp;subcat=0&amp;aid=952281&amp;item_start=1&amp;the_start=1</t>
+  </si>
+  <si>
+    <t>http://www.bestwelhip.nl/partij-friso-kramer-vintage-design-bar-krukken-kruk-vintage-barstool-ahrend-de-cirkel-9-stuks</t>
+  </si>
+  <si>
+    <t>http://bleufurniture.com/desks-product2251.html</t>
+  </si>
+  <si>
+    <t>http://blomandblom.com/product/bakelite-flip-switch/</t>
+  </si>
+  <si>
+    <t>http://vintage-studio.nl/product/rex-chair</t>
+  </si>
+  <si>
+    <t>http://www.vintageunit.com/page14.html#top</t>
+  </si>
+  <si>
+    <t>'Large Rosewood and Chrome Sideboard 1970’s\nMid-Century Chandelier in the Style of Stilnovo\nTo Gallery \nVintage Cab Chairs by Designer Mario Bellini for Cassina 1970 \nSet of 8 Cassina Cab chairs by designer Mario Bellini made by Cassina in the Seventies.\nThese chairs feature a rare grey leather upholstery zippered over the frame with a nice vintage patine.\nPlease ask for more detail pictures.\nShare \nMade Of:\xa0 Leather, Metal\nColor:\xa0 Grey\nDesign period:\xa0 1970\nDesigner:\xa0 Mario Bellini\nManufacturer:\xa0 Cassina\nSize:\xa0 H:82 W:52 D:47 cm\nOrigin:\xa0 Italy\nStatus:\xa0Available\nPrice:\xa0â\x82¬\xa03250 - set price\nEMAIL REQUEST\nRelated Objects\nLove Seat by Keith Haring Made by Bretz\nChairs &amp; Sofas, Furniture, New Arrivals\nPair Miss Dorn Chairs By Philippe Starck 1982\nChairs &amp; Sofas, Furniture, New Arrivals\nMid-Century Chandelier in the Style of Stilnovo\nCeiling, Hanging, Lighting, New Arrivals\nVintage Iron Decorative Wall Unit 1950s\nFurniture, New Arrivals, Storage'</t>
+  </si>
+  <si>
+    <t>http://www.vintagevillage.be/items/vintage-cab-chairs-by-designer-mario-bellini-for-cassina-1970/</t>
+  </si>
+  <si>
+    <t>http://www.interieur-vivre.nl/shop/lampen/robuuste-fabriekslamp/</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>http://www.vonvintage.nl/catalogus/item/bekijk/art/vintage-3-zits-bank-arne-norell-jaren-60.html</t>
+  </si>
+  <si>
+    <t>'Vintage 3-zits bank Arne Norell jaren 60\nDesigner:\nArne Norell\nManufacturer:\nMobel AB\nYear:\nJaren 60\nMaterial:\nPalissander hout, leer\nDimensions:\nL186 x D65 x ZH41cm\nCondition:\nGoed/zeer goed\nPrice:\n€ 575,00\nVintage 3-zits bank ontworpen in de jaren 60 door de Zweedse designer Arne Norell voor AB Mobel. De bank verkeert in goede staat.\xa0\nContact'</t>
+  </si>
+  <si>
+    <t>http://www.vvud.co.uk/wud/?portfolio=teak-dining-chairs-by-poul-volther-1960s-set-of-6</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>http://www.well-collected.de/-Castelli-Plano-Klapptisch_7.html?cat=1&amp;art=10</t>
+  </si>
+  <si>
+    <t>'• OBJEKTE\n• ARCHIV\nCastelli Plano Klapptisch\nFunktionaler Klapptisch von Giancarlo Pierretti für Castelli.\nKunststofftischplatte mit Aluminiumfußgestell.\nToller, variabler Klappmechanismuss.\nDurchmesser: 100 cm, Höhe: 75 cm\nGuter Zustand!\nFunctional folding-table of Giancarlo Piretti made by Castelli.\nPlastic tabletop on aluminiumbase.\nGreat, changeable folding mechanism.\nDiameter: 100 cm, Height: 75 cm\nGood condition!\nPrice: 590€\n&lt;\nPreis inkl.MwSt: 0,00 €\nenthaltene MwSt: 0%\nArtikel Nr.: \nEAN: \n0,00 €\nUVP: 0,00 € *\nLieferzeit: \nAnfrage\nNachname*\nVorname*\nTel. Nr.\neMail*\n*\nNachricht*\nMenge: \nzurück\nFacebook'</t>
+  </si>
+  <si>
+    <t>http://woodstockantiques.be/index.cfm?page=Collection&amp;cat=4703&amp;subcat=0&amp;the_start=1</t>
+  </si>
+  <si>
+    <t>http://worksberlin.com/objekte.htm</t>
+  </si>
+  <si>
+    <t>http://www.xxo.com/zoom-vente/?ref=1632</t>
+  </si>
+  <si>
+    <t>http://www.yolshy.com/type/chairs/retro-vintage-danish-stool-teak-footstool-dressing-stool-1960s-70s.html</t>
+  </si>
+  <si>
+    <t>not body; captures too much</t>
+  </si>
+  <si>
+    <t>http://zogoedalsoud.nl/en_GB/portfolio/t-spectrum-martin-visser-rattan-dining-chairs-se05/</t>
+  </si>
+  <si>
+    <t>"‘t Spectrum Martin Visser rattan dining chairs SE05\n← Danish extendable coffee table\n€ 145,- each\nIn stock:\n3\nItem-number:\n01030243\nDesigner:\nMartin Visser for 't Spectrum\nLocation:\nStorage Lijnden\nRattan dining chairs wit metal frame.\nHeight seating: 46 cm\nShare:\n• Facebook\n•"</t>
+  </si>
+  <si>
+    <t>http://www.ztijl.com/product/square-cactus-jar-coper/</t>
+  </si>
+  <si>
+    <t>'Square Cactus Jar Coper\n€\xa0350,00\nRare graniver (glass) cactus jar designed by A.D. Copier in 1929 and made at in the Dutch glass factory Leerdam. Material: pressed glass. This is the lower version of this series, which was made in two different sizes. It is marked with the LC- mark of Copier and the number NO 11987. The colour is bleu. Considering its age the pot is in excellent condition.\n1 in stock\nAdd to cart\nSKU: Z-02996\nCategories: Glass, New, Objects, Styles, Timeless\nAdditional Information\nAsk a question / reserve this product\nAdditional Information\nDesigner\nA. D. Copier\nManufacturer\nGlass Factory Leerdam\nCondition\nExcellent\nh x w x d\n9, 4 x 10, 5 x 10, 5 cm\nAsk a question / reserve this product\nName\nEmail address\nEnquiry\nRelated Products\nHagoort Hanging Lamp Model 259\n€\xa0245,00\nAdd to cart\nPilastro Desk Designed by Tjerk Reijenga\n€\xa0450,00\nAdd to cart\nFog Morup Semi Hanging Light\n€\xa0245,00\nAdd to cart\nCoffee table by J. Belarti\n€\xa0275,00\nAdd to cart'</t>
+  </si>
+  <si>
+    <t>http://chdesignfurniture.ch/LA_Sarfatti3.php</t>
+  </si>
+  <si>
+    <t>clean text</t>
+  </si>
+  <si>
+    <t>'Fields marked with * are required.\nArtNo* :\nArtNo :\n\xa0\nYour email* :\nName :\nOffice lamp 600p\n\xa0\n\xa0\nDesigner :\nGino Sarfatti\n\xa0\n\xa0\nManufacture :\nArteluce\nMessage* :\nDescription :\nTable lamp \nsmall leather bag white\nOriginal state\nCirca 1970\nPrice :\nSold.\nWebsite by lux2000 Â© 2015 CHDesign Furniture'</t>
+  </si>
+  <si>
+    <t>http://www.art-20.ch/nouvelles-acquisitions-1/</t>
+  </si>
+  <si>
+    <t>http://www.va-de-retro.es/index.php?main_page=product_info&amp;cPath=1&amp;products_id=496&amp;zenid=qop2rfbvoulj2o8ppp0cu52dc0</t>
+  </si>
+  <si>
+    <t>'• Clientes registrados\n\xa0\n• Showroom\n• Catálogo\n• Servicios\n• Info\n• Contacto\nVintage-oficio - mesa madera\n490,00\xa0€\n• Referencia: 2153\n• Unidad(es) disponible(s): 0\n• ...más información\nCATEGORÍA: mueble\nDESCRIPCIÓN: Antigua mesa en madera de frutal con 2 cajones centrales, decapada y encerrada\nÉPOCA: Ppios S.XX\nESTADO: Muy bueno\nDIMENSIONES:Largo 160cm, ancho 77cm, alto 80cm (se puede recortar hasta un alto estandar de 75cm sin ningún perjuicio para la estética de la mesa)\nProducto 1 de 136\nMOBILIARIO VINTAGE Y RETRO.\nMuebles industriales de fábrica y de oficio, design escandinavo, muebles de los años 50 … \nLos precios incluyen IVA, NO incluyen transporte - Precios válidos salvo error tipográfico\nCopyright © 2015 Va De Retro'</t>
+  </si>
+  <si>
+    <t>http://lacabinamuebles.com/wp-gallery2.php?g2_view=core.ShowItem&amp;g2_itemId=72</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>http://galerie-canavese.com/fr/galerie/item/petropolis-elevation-7007-sculpture-d-aleksandar-petrovic.html?category_id=25</t>
+  </si>
+  <si>
+    <t>"Petropolis Elévation 7007, sculpture d'Aleksandar Petrovic \nEtonnante sculpture lumineuse d'Aleksandar Petrovic (Petroland), réalisée à la main avec des éléments recyclés, détournés de leur fonction originale.\nLes couleurs, l'intensité de la lumière, la vitesse de changement sont modifiables à l'aide de boitiers de commande.\nHauteur: 254 cm\nPlus fort diamètre: 70 cm"</t>
+  </si>
+  <si>
+    <t>http://www.kifkef.be/?product=bankstel</t>
+  </si>
+  <si>
+    <t>'Bankstel\nBankstel\nMet zijn tijdloze Scandinavische uiterlijk is dit bankstel van het jonge merk Gazzda een eyecatcher in elk interieur. De kussens en het massief eiken frame zijn beschikbaar in verschillende afwerkingen zodat je het bankstel perfect kan afstemmen op de rest van je interieur.\nAfmetingen: 100cm x 88cm x 69cm (max tot 240cm)\nLevertermijn +- 12 weken\n€\xa0890,00\nArtikelnummer : BKS001.\nCategorie: Meubels.\nVerkrijgbaar als backorder.\n+ TOEVOEGEN AAN WINKELWAGEN'</t>
+  </si>
+  <si>
+    <t>http://www.tack-market.com/furniture/ta-065/</t>
+  </si>
+  <si>
+    <t>product-info</t>
+  </si>
+  <si>
+    <t>http://chiccham.com/jaisalmer-mattress-grey.html</t>
+  </si>
+  <si>
+    <t>http://alexmacarthur.co.uk/catalogue_detail.asp?nShopProd_ID={61DEE154-381B-45D8-9C48-DFF8830C7CF9}&amp;src=catalogue_list%2Easp%3FnShopProdCat_ID%3D%7B6B583834-A5CD-4943-98F5-536C734C9570%7D%26nPageNo%3D1%26src%3Dcollection%2Easp</t>
+  </si>
+  <si>
+    <t>cat_detail…</t>
+  </si>
+  <si>
+    <t>http://www.20thcenturymarks.co.uk/art.html</t>
+  </si>
+  <si>
+    <t>http://www.georgialacey.co.uk/set-of-eight-richly-carved-gustavian-style-dining-chairs?src=antique-furniture-collection?nPageNo=1</t>
+  </si>
+  <si>
+    <t>http://recova.es/mesas.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1659,6 +2046,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1692,7 +2084,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1725,8 +2117,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1745,8 +2140,12 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="25" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1765,6 +2164,9 @@
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2115,2723 +2517,3417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L373"/>
+  <dimension ref="A1:M373"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="2"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="30.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="30.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>363</v>
-      </c>
+      <c r="B1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="8"/>
       <c r="D1" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>362</v>
+        <v>540</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>373</v>
+        <v>541</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>438</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>364</v>
+      <c r="B2" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>473</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>367</v>
+      <c r="B4" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>360</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>367</v>
+      <c r="B5" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>486</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="42">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>367</v>
+      <c r="B6" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>367</v>
+      <c r="B7" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>367</v>
+      <c r="B8" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>367</v>
+      <c r="B9" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>364</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>376</v>
+      <c r="B10" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>367</v>
+      <c r="B11" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="29">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="E13" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="29">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>367</v>
+      <c r="B14" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>363</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="42">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>379</v>
+      <c r="B15" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>368</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="42">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>381</v>
+      <c r="B17" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>370</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>383</v>
+      <c r="B18" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>371</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>386</v>
+      <c r="B19" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>373</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>389</v>
+      <c r="B20" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>390</v>
+      <c r="B21" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>393</v>
+      <c r="B22" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>377</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>397</v>
+      <c r="B23" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>399</v>
+      <c r="B24" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>380</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>402</v>
+      <c r="B25" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>382</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>405</v>
+      <c r="B26" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>383</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="70">
       <c r="A27" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="42">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>402</v>
+      <c r="B28" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="112">
+      <c r="A29" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="42">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="42">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="42">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="42">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="42">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="29">
+      <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="28">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="42">
+      <c r="A40" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="42">
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="29">
+      <c r="A42" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="42">
+      <c r="A44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="42">
+      <c r="A45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28">
+      <c r="A46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="42">
+      <c r="A49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>436</v>
+      <c r="F49" s="2" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="42">
+      <c r="A51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28">
+      <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28">
+      <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="3" t="s">
+      <c r="B53" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="29">
+      <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3" t="s">
+      <c r="B54" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="42">
+      <c r="A55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>436</v>
+      <c r="B55" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>397</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B56" s="3"/>
       <c r="C56" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17">
+      <c r="A58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17">
+      <c r="A59" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="3" t="s">
+      <c r="G59" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17">
+      <c r="A60" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="3" t="s">
+      <c r="B60" s="3"/>
+      <c r="C60" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17">
+      <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="3" t="s">
+      <c r="B61" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="42">
+      <c r="A62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="B62" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="F63" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="28">
+      <c r="A64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="70">
+      <c r="A65" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="B65" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="3" t="s">
+    <row r="68" spans="1:7" ht="43">
+      <c r="A68" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="3" t="s">
+      <c r="B68" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="9" t="s">
+      <c r="B69" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="28">
+      <c r="A70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="42">
+      <c r="A71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="28">
+      <c r="A72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="29">
+      <c r="A74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="29">
+      <c r="A76" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="29">
+      <c r="A77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="28">
+      <c r="A78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="28">
+      <c r="A79" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="29">
+      <c r="A81" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="H72" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="3" t="s">
+      <c r="G81" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="28">
+      <c r="A82" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="3" t="s">
+      <c r="B82" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="28">
+      <c r="A83" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="3" t="s">
+      <c r="B83" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="29">
+      <c r="A84" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H82" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="3" t="s">
+      <c r="C84" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="28">
+      <c r="A85" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="29">
+      <c r="A86" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="3" t="s">
+      <c r="B86" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B87" s="3"/>
+      <c r="C87" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28">
+      <c r="A88" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="3" t="s">
+      <c r="C88" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="28">
+      <c r="A89" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="28">
+      <c r="A90" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="3" t="s">
+      <c r="B90" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="3" t="s">
+      <c r="B91" s="3"/>
+      <c r="F91" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="3" t="s">
+      <c r="B92" s="3"/>
+      <c r="F92" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="3" t="s">
+      <c r="B93" s="3"/>
+      <c r="F93" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="3" t="s">
+      <c r="B94" s="3"/>
+      <c r="F94" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="28">
+      <c r="A95" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="3" t="s">
+      <c r="B95" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="28">
+      <c r="A96" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="3" t="s">
+      <c r="B96" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="3" t="s">
+      <c r="B97" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="28">
+      <c r="A98" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3" t="s">
+      <c r="B98" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3" t="s">
+      <c r="B99" s="3"/>
+      <c r="F99" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="28">
+      <c r="A100" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="3" t="s">
+      <c r="B100" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="29">
+      <c r="A101" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="3" t="s">
+      <c r="B101" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="42">
+      <c r="A102" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="3" t="s">
+      <c r="B102" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="3" t="s">
+      <c r="B103" s="3"/>
+      <c r="F103" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="3" t="s">
+      <c r="B104" s="3"/>
+      <c r="F104" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="3" t="s">
+      <c r="B105" s="3"/>
+      <c r="F105" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="42">
+      <c r="A106" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="3" t="s">
+      <c r="B106" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="28">
+      <c r="A107" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="3" t="s">
+      <c r="B107" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="28">
+      <c r="A108" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="3" t="s">
+      <c r="B108" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="3" t="s">
+      <c r="B109" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="28">
+      <c r="A110" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="3" t="s">
+      <c r="B110" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="43">
+      <c r="A111" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="3" t="s">
+      <c r="B111" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="42">
+      <c r="A112" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="3" t="s">
+      <c r="B112" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="43">
+      <c r="A113" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="3" t="s">
+      <c r="B113" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="42">
+      <c r="A114" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="3" t="s">
+      <c r="B114" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="29">
+      <c r="A115" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="3" t="s">
+      <c r="B115" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="42">
+      <c r="A116" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="3" t="s">
+      <c r="B116" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="3" t="s">
+      <c r="B117" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="28">
+      <c r="A118" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="3" t="s">
+      <c r="B118" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="42">
+      <c r="A119" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="3" t="s">
+      <c r="B119" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="43">
+      <c r="A120" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="3" t="s">
+      <c r="B120" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="29">
+      <c r="A121" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="3" t="s">
+      <c r="B121" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="3" t="s">
+      <c r="B122" s="3"/>
+      <c r="F122" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="29">
+      <c r="A123" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="3" t="s">
+      <c r="B123" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="3" t="s">
+      <c r="B124" s="3"/>
+      <c r="F124" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="28">
+      <c r="A125" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="3" t="s">
+      <c r="B125" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="3" t="s">
+      <c r="B126" s="3"/>
+      <c r="F126" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="57">
+      <c r="A127" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="3" t="s">
+      <c r="B127" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="42">
+      <c r="A128" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="3" t="s">
+      <c r="B128" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="57">
+      <c r="A129" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="3" t="s">
+      <c r="B129" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="17">
+      <c r="A130" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="3" t="s">
+      <c r="B130" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="28">
+      <c r="A131" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="3" t="s">
+      <c r="B131" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="28">
+      <c r="A132" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="3" t="s">
+      <c r="B132" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="112">
+      <c r="A133" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="3" t="s">
+      <c r="B133" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="28">
+      <c r="A134" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="3" t="s">
+      <c r="B134" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="56">
+      <c r="A135" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="3" t="s">
+      <c r="B135" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="3" t="s">
+      <c r="B136" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="3" t="s">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="3" t="s">
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="3" t="s">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="3" t="s">
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="3" t="s">
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="1:7" ht="28">
+      <c r="A142" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="3" t="s">
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="28">
-      <c r="A142" s="3" t="s">
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="3" t="s">
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="3" t="s">
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="3" t="s">
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="3" t="s">
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="3" t="s">
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="3" t="s">
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="3" t="s">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="3" t="s">
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="3" t="s">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="3" t="s">
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="3" t="s">
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="3" t="s">
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="3" t="s">
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="3" t="s">
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="3" t="s">
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="3" t="s">
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="3" t="s">
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="3" t="s">
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="3" t="s">
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="3" t="s">
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="3" t="s">
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="3" t="s">
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="3" t="s">
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="3" t="s">
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="3" t="s">
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="3" t="s">
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="3" t="s">
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="3" t="s">
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="3" t="s">
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="3" t="s">
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="3" t="s">
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="3" t="s">
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="3" t="s">
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="3" t="s">
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="3" t="s">
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="3" t="s">
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="3" t="s">
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="3" t="s">
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="3" t="s">
+      <c r="B182" s="3"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="3" t="s">
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="3" t="s">
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="3" t="s">
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="3" t="s">
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="3" t="s">
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="3" t="s">
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="3" t="s">
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="5"/>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="3" t="s">
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="3" t="s">
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="3" t="s">
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="3" t="s">
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="3" t="s">
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="3" t="s">
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="3" t="s">
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="3" t="s">
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="3" t="s">
+      <c r="B199" s="3"/>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="3" t="s">
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="3" t="s">
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="3" t="s">
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="3" t="s">
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="3" t="s">
+      <c r="B204" s="3"/>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="3" t="s">
+      <c r="B205" s="3"/>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="3" t="s">
+      <c r="B206" s="3"/>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="3" t="s">
+      <c r="B207" s="3"/>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="3" t="s">
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="3" t="s">
+      <c r="B209" s="3"/>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="3" t="s">
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="3" t="s">
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="3" t="s">
+      <c r="B212" s="3"/>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="3" t="s">
+      <c r="B213" s="3"/>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="3" t="s">
+      <c r="B214" s="3"/>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="3" t="s">
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="3" t="s">
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="5"/>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="3" t="s">
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="3" t="s">
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="3" t="s">
+      <c r="B220" s="3"/>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="3" t="s">
+      <c r="B221" s="3"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="3" t="s">
+      <c r="B222" s="3"/>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="3" t="s">
+      <c r="B223" s="3"/>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="3" t="s">
+      <c r="B224" s="3"/>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="3" t="s">
+      <c r="B225" s="3"/>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="3" t="s">
+      <c r="B226" s="3"/>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="3" t="s">
+      <c r="B227" s="3"/>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="3" t="s">
+      <c r="B228" s="3"/>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="3" t="s">
+      <c r="B229" s="3"/>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="3" t="s">
+      <c r="B230" s="3"/>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="3" t="s">
+      <c r="B231" s="3"/>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="3" t="s">
+      <c r="B232" s="3"/>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="3" t="s">
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="3" t="s">
+      <c r="B234" s="3"/>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="3" t="s">
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="3" t="s">
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="3" t="s">
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="1:2" ht="28">
+      <c r="A238" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="3" t="s">
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="28">
-      <c r="A238" s="3" t="s">
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240" spans="1:2" ht="28">
+      <c r="A240" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="3" t="s">
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="28">
-      <c r="A240" s="3" t="s">
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="3" t="s">
+      <c r="B242" s="3"/>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="3" t="s">
+      <c r="B243" s="3"/>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="3" t="s">
+      <c r="B244" s="3"/>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="3" t="s">
+      <c r="B245" s="3"/>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="3" t="s">
+      <c r="B246" s="3"/>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="3" t="s">
+      <c r="B248" s="3"/>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="5"/>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="3" t="s">
+      <c r="B249" s="3"/>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="3" t="s">
+      <c r="B250" s="3"/>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="3" t="s">
+      <c r="B251" s="3"/>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="3" t="s">
+      <c r="B252" s="3"/>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="3" t="s">
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="3" t="s">
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="3" t="s">
+      <c r="B255" s="3"/>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="3" t="s">
+      <c r="B256" s="3"/>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="3" t="s">
+      <c r="B257" s="3"/>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="3" t="s">
+      <c r="B258" s="3"/>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="3" t="s">
+      <c r="B259" s="3"/>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="3" t="s">
+      <c r="B260" s="3"/>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="3" t="s">
+      <c r="B261" s="3"/>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="3" t="s">
+      <c r="B262" s="3"/>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="3" t="s">
+      <c r="B263" s="3"/>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="3" t="s">
+      <c r="B264" s="3"/>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="3" t="s">
+      <c r="B265" s="3"/>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="3" t="s">
+      <c r="B266" s="3"/>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="3" t="s">
+      <c r="B267" s="3"/>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="3" t="s">
+      <c r="B268" s="3"/>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="3" t="s">
+      <c r="B269" s="3"/>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="3" t="s">
+      <c r="B270" s="3"/>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="3" t="s">
+      <c r="B271" s="3"/>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="3" t="s">
+      <c r="B273" s="3"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="5"/>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="3" t="s">
+      <c r="B275" s="3"/>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="5"/>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="3" t="s">
+      <c r="B276" s="3"/>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="3" t="s">
+      <c r="B277" s="3"/>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" s="3" t="s">
+      <c r="B278" s="3"/>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" s="3" t="s">
+      <c r="B279" s="3"/>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="3" t="s">
+      <c r="B280" s="3"/>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="3" t="s">
+      <c r="B281" s="3"/>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="3" t="s">
+      <c r="B282" s="3"/>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="3" t="s">
+      <c r="B283" s="3"/>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="3" t="s">
+      <c r="B284" s="3"/>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="3" t="s">
+      <c r="B285" s="3"/>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="3" t="s">
+      <c r="B286" s="3"/>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="3" t="s">
+      <c r="B287" s="3"/>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" s="3" t="s">
+      <c r="B288" s="3"/>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="3" t="s">
+      <c r="B289" s="3"/>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="3" t="s">
+      <c r="B290" s="3"/>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="3" t="s">
+      <c r="B291" s="3"/>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="3" t="s">
+      <c r="B292" s="3"/>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="3" t="s">
+      <c r="B293" s="3"/>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="3" t="s">
+      <c r="B294" s="3"/>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="3" t="s">
+      <c r="B295" s="3"/>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="3" t="s">
+      <c r="B296" s="3"/>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="3" t="s">
+      <c r="B297" s="3"/>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="3" t="s">
+      <c r="B298" s="3"/>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="3" t="s">
+      <c r="B299" s="3"/>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" s="3" t="s">
+      <c r="B300" s="3"/>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="3" t="s">
+      <c r="B301" s="3"/>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="3" t="s">
+      <c r="B302" s="3"/>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" s="3" t="s">
+      <c r="B303" s="3"/>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" s="3" t="s">
+      <c r="B304" s="3"/>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="3" t="s">
+      <c r="B305" s="3"/>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="3" t="s">
+      <c r="B306" s="3"/>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" s="3" t="s">
+      <c r="B307" s="3"/>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" s="3" t="s">
+      <c r="B308" s="3"/>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="3" t="s">
+      <c r="B309" s="3"/>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" s="3" t="s">
+      <c r="B310" s="3"/>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" s="3" t="s">
+      <c r="B311" s="3"/>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="3" t="s">
+      <c r="B312" s="3"/>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="3" t="s">
+      <c r="B313" s="3"/>
+    </row>
+    <row r="314" spans="1:2" ht="28">
+      <c r="A314" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="3" t="s">
+      <c r="B314" s="3"/>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" ht="28">
-      <c r="A314" s="3" t="s">
+      <c r="B315" s="3"/>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" s="3" t="s">
+      <c r="B316" s="3"/>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" s="3" t="s">
+      <c r="B317" s="3"/>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" s="3" t="s">
+      <c r="B318" s="3"/>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" s="3" t="s">
+      <c r="B319" s="3"/>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" s="3" t="s">
+      <c r="B320" s="3"/>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" s="3" t="s">
+      <c r="B321" s="3"/>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="3" t="s">
+      <c r="B322" s="3"/>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="3" t="s">
+      <c r="B323" s="3"/>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="3" t="s">
+      <c r="B324" s="3"/>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="3" t="s">
+      <c r="B325" s="3"/>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="3" t="s">
+      <c r="B326" s="3"/>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="3" t="s">
+      <c r="B327" s="3"/>
+    </row>
+    <row r="328" spans="1:2" ht="28">
+      <c r="A328" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="3" t="s">
+      <c r="B328" s="3"/>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" ht="28">
-      <c r="A328" s="3" t="s">
+      <c r="B329" s="3"/>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" s="3" t="s">
+      <c r="B330" s="3"/>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" s="3" t="s">
+      <c r="B331" s="3"/>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" s="3" t="s">
+      <c r="B332" s="3"/>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" s="3" t="s">
+      <c r="B333" s="3"/>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" s="3" t="s">
+      <c r="B334" s="3"/>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="3" t="s">
+      <c r="B335" s="3"/>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" s="3" t="s">
+      <c r="B336" s="3"/>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" s="3" t="s">
+      <c r="B337" s="3"/>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" s="3" t="s">
+      <c r="B338" s="3"/>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="3" t="s">
+      <c r="B339" s="3"/>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="3" t="s">
+      <c r="B340" s="3"/>
+    </row>
+    <row r="341" spans="1:2" ht="28">
+      <c r="A341" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" s="3" t="s">
+      <c r="B341" s="3"/>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" ht="28">
-      <c r="A341" s="3" t="s">
+      <c r="B342" s="3"/>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" s="3" t="s">
+      <c r="B343" s="3"/>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" s="3" t="s">
+      <c r="B344" s="3"/>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" s="3" t="s">
+      <c r="B345" s="3"/>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" s="3" t="s">
+      <c r="B346" s="3"/>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" s="3" t="s">
+      <c r="B347" s="3"/>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="3" t="s">
+      <c r="B348" s="3"/>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="3" t="s">
+      <c r="B349" s="3"/>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" s="3" t="s">
+      <c r="B350" s="3"/>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" s="3" t="s">
+      <c r="B351" s="3"/>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="3" t="s">
+      <c r="B352" s="3"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" s="3" t="s">
+      <c r="B353" s="3"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="A353" s="3" t="s">
+      <c r="B354" s="3"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="354" spans="1:8">
-      <c r="A354" s="3" t="s">
+      <c r="B355" s="3"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" s="3" t="s">
+      <c r="B356" s="3"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="A356" s="3" t="s">
+      <c r="B357" s="3"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="357" spans="1:8">
-      <c r="A357" s="3" t="s">
+      <c r="B358" s="3"/>
+    </row>
+    <row r="359" spans="1:5" ht="28">
+      <c r="A359" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="358" spans="1:8">
-      <c r="A358" s="3" t="s">
+      <c r="B359" s="3"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" ht="28">
-      <c r="A359" s="3" t="s">
+      <c r="B360" s="3"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="360" spans="1:8">
-      <c r="A360" s="3" t="s">
+      <c r="B361" s="3"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="361" spans="1:8">
-      <c r="A361" s="3" t="s">
+      <c r="B362" s="3"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="A362" s="3" t="s">
+      <c r="B363" s="3"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="A363" s="3" t="s">
+      <c r="B364" s="3"/>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" s="3" t="s">
+      <c r="B365" s="3"/>
+      <c r="C365" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="28">
+      <c r="A366" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G364" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="A365" s="3" t="s">
+      <c r="B366" s="3"/>
+      <c r="C366" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B365" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="28">
-      <c r="A366" s="3" t="s">
+      <c r="B367" s="3"/>
+      <c r="C367" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E367" s="6"/>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="A367" s="3" t="s">
+      <c r="B369" s="7"/>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H367" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" s="7" t="s">
+      <c r="B370" s="7"/>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="7" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="7" t="s">
+      <c r="B371" s="7"/>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="7" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" s="7" t="s">
+      <c r="B372" s="7"/>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="7" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" s="7" t="s">
-        <v>359</v>
-      </c>
+      <c r="B373" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A373"/>
+  <autoFilter ref="A1:M373"/>
   <hyperlinks>
-    <hyperlink ref="D367" r:id="rId1" display="http://moderntimesberlin.com/achive/&lt;number&gt;.jpg"/>
-    <hyperlink ref="B365" r:id="rId2"/>
-    <hyperlink ref="A67" r:id="rId3"/>
+    <hyperlink ref="C365" r:id="rId1"/>
+    <hyperlink ref="A67" r:id="rId2"/>
+    <hyperlink ref="A124" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
